--- a/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
@@ -1189,7 +1189,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1685,7 +1685,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2027,13 +2027,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="T581" sqref="T581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2190,7 @@
         <v>12166478.754369844</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>182</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>681389.03125</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>182</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>182</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>804004.7578125</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>182</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>437947.25362318842</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>182</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
         <v>182</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>182</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>182</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>182</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>182</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>182</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>45505.852112676053</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>182</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>182</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>182</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>182</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>182</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>182</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>182</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>182</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>182</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>0.13</v>
       </c>
       <c r="T25" s="59">
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="U25" s="59"/>
       <c r="V25" s="59">
@@ -4412,7 +4413,7 @@
       </c>
       <c r="W25" s="60">
         <f t="shared" si="0"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X25" s="60">
         <f t="shared" si="3"/>
@@ -4451,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>182</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>182</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>182</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>182</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>182</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>182</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>182</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>182</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>182</v>
       </c>
@@ -5297,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>182</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>182</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>182</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>182</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>182</v>
       </c>
@@ -5767,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>182</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>182</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>182</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>182</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>182</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>182</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>182</v>
       </c>
@@ -6425,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>182</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>182</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>182</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
         <v>182</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
         <v>182</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="81" t="s">
         <v>182</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>32.795774647887313</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="81" t="s">
         <v>182</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
         <v>182</v>
       </c>
@@ -7177,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="81" t="s">
         <v>182</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="81" t="s">
         <v>182</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="81" t="s">
         <v>182</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="81" t="s">
         <v>182</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="81" t="s">
         <v>182</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="81" t="s">
         <v>182</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
         <v>182</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
         <v>182</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
         <v>182</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
         <v>182</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
         <v>182</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="81" t="s">
         <v>182</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
         <v>185</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="81" t="s">
         <v>185</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="81" t="s">
         <v>185</v>
       </c>
@@ -8597,7 +8598,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
         <v>185</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="81" t="s">
         <v>185</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="81" t="s">
         <v>182</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>50136.600000000013</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="81" t="s">
         <v>185</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="81" t="s">
         <v>185</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="81" t="s">
         <v>185</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="81" t="s">
         <v>185</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="81" t="s">
         <v>185</v>
       </c>
@@ -9396,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
         <v>185</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="81" t="s">
         <v>185</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="81" t="s">
         <v>185</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="81" t="s">
         <v>185</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="81" t="s">
         <v>185</v>
       </c>
@@ -9901,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="81" t="s">
         <v>185</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="81" t="s">
         <v>185</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="81" t="s">
         <v>185</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="81" t="s">
         <v>185</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="81" t="s">
         <v>185</v>
       </c>
@@ -10406,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="81" t="s">
         <v>185</v>
       </c>
@@ -10507,7 +10508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="81" t="s">
         <v>185</v>
       </c>
@@ -10658,8 +10659,8 @@
         <v>0.13</v>
       </c>
       <c r="R90" s="16"/>
-      <c r="T90" s="64">
-        <v>-30329.470000000099</v>
+      <c r="T90" s="59">
+        <v>0</v>
       </c>
       <c r="U90" s="64"/>
       <c r="V90" s="64">
@@ -10667,7 +10668,7 @@
       </c>
       <c r="W90" s="65">
         <f t="shared" si="7"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X90" s="65">
         <f t="shared" si="15"/>
@@ -10709,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="81" t="s">
         <v>185</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="81" t="s">
         <v>185</v>
       </c>
@@ -10911,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="81" t="s">
         <v>185</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="81" t="s">
         <v>185</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="81" t="s">
         <v>185</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="81" t="s">
         <v>185</v>
       </c>
@@ -11315,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="81" t="s">
         <v>185</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="81" t="s">
         <v>185</v>
       </c>
@@ -11517,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="81" t="s">
         <v>185</v>
       </c>
@@ -11618,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="81" t="s">
         <v>185</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="81" t="s">
         <v>185</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="81" t="s">
         <v>185</v>
       </c>
@@ -11921,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81" t="s">
         <v>185</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
         <v>185</v>
       </c>
@@ -12123,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="81" t="s">
         <v>185</v>
       </c>
@@ -12224,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="81" t="s">
         <v>185</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="81" t="s">
         <v>185</v>
       </c>
@@ -12426,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="81" t="s">
         <v>185</v>
       </c>
@@ -12527,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="81" t="s">
         <v>185</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="81" t="s">
         <v>185</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="81" t="s">
         <v>185</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="81" t="s">
         <v>185</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="81" t="s">
         <v>185</v>
       </c>
@@ -13032,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="81" t="s">
         <v>185</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="81" t="s">
         <v>185</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="81" t="s">
         <v>185</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="81" t="s">
         <v>185</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>8.9507042253521156</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="81" t="s">
         <v>185</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="81" t="s">
         <v>185</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="81" t="s">
         <v>185</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="81" t="s">
         <v>185</v>
       </c>
@@ -13840,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="81" t="s">
         <v>185</v>
       </c>
@@ -13941,7 +13942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="81" t="s">
         <v>185</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="81" t="s">
         <v>185</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="81" t="s">
         <v>185</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="81" t="s">
         <v>185</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="81" t="s">
         <v>185</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="81" t="s">
         <v>185</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>40650.985915492973</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="81" t="s">
         <v>185</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="81" t="s">
         <v>185</v>
       </c>
@@ -14737,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="81" t="s">
         <v>185</v>
       </c>
@@ -14836,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="81" t="s">
         <v>185</v>
       </c>
@@ -14941,7 +14942,7 @@
         <v>22.689999999999941</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="81" t="s">
         <v>199</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>1964.1</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="81" t="s">
         <v>199</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="81" t="s">
         <v>199</v>
       </c>
@@ -15250,7 +15251,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="81" t="s">
         <v>199</v>
       </c>
@@ -15349,7 +15350,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="81" t="s">
         <v>199</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="81" t="s">
         <v>199</v>
       </c>
@@ -15547,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="81" t="s">
         <v>199</v>
       </c>
@@ -15646,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="81" t="s">
         <v>199</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="81" t="s">
         <v>199</v>
       </c>
@@ -15844,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="81" t="s">
         <v>199</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="81" t="s">
         <v>199</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="81" t="s">
         <v>199</v>
       </c>
@@ -16141,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="81" t="s">
         <v>199</v>
       </c>
@@ -16240,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="81" t="s">
         <v>199</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="81" t="s">
         <v>199</v>
       </c>
@@ -16438,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="81" t="s">
         <v>199</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="81" t="s">
         <v>199</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="81" t="s">
         <v>199</v>
       </c>
@@ -16735,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="81" t="s">
         <v>199</v>
       </c>
@@ -16834,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="81" t="s">
         <v>199</v>
       </c>
@@ -16933,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="81" t="s">
         <v>199</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="81" t="s">
         <v>199</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="81" t="s">
         <v>199</v>
       </c>
@@ -17230,7 +17231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="81" t="s">
         <v>199</v>
       </c>
@@ -17379,8 +17380,8 @@
         <v>0.13</v>
       </c>
       <c r="R157" s="16"/>
-      <c r="T157" s="64">
-        <v>-30329.470000000099</v>
+      <c r="T157" s="59">
+        <v>0</v>
       </c>
       <c r="U157" s="64"/>
       <c r="V157" s="64">
@@ -17388,7 +17389,7 @@
       </c>
       <c r="W157" s="65">
         <f t="shared" si="26"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X157" s="65">
         <f t="shared" si="18"/>
@@ -17428,7 +17429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="81" t="s">
         <v>199</v>
       </c>
@@ -17527,7 +17528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="81" t="s">
         <v>199</v>
       </c>
@@ -17626,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="81" t="s">
         <v>199</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="81" t="s">
         <v>199</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="81" t="s">
         <v>199</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="81" t="s">
         <v>199</v>
       </c>
@@ -18022,7 +18023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="81" t="s">
         <v>199</v>
       </c>
@@ -18121,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="81" t="s">
         <v>199</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="81" t="s">
         <v>199</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="81" t="s">
         <v>199</v>
       </c>
@@ -18418,7 +18419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="81" t="s">
         <v>199</v>
       </c>
@@ -18517,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="81" t="s">
         <v>199</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="81" t="s">
         <v>199</v>
       </c>
@@ -18715,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="81" t="s">
         <v>199</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="81" t="s">
         <v>199</v>
       </c>
@@ -18913,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="81" t="s">
         <v>199</v>
       </c>
@@ -19012,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="81" t="s">
         <v>199</v>
       </c>
@@ -19111,7 +19112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="81" t="s">
         <v>199</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="81" t="s">
         <v>199</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="81" t="s">
         <v>199</v>
       </c>
@@ -19408,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="81" t="s">
         <v>199</v>
       </c>
@@ -19507,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="81" t="s">
         <v>199</v>
       </c>
@@ -19606,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="81" t="s">
         <v>199</v>
       </c>
@@ -19705,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="81" t="s">
         <v>199</v>
       </c>
@@ -19804,7 +19805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="81" t="s">
         <v>199</v>
       </c>
@@ -19903,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="81" t="s">
         <v>199</v>
       </c>
@@ -20002,7 +20003,7 @@
         <v>16114.171171171167</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="81" t="s">
         <v>199</v>
       </c>
@@ -20101,7 +20102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="81" t="s">
         <v>199</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="81" t="s">
         <v>199</v>
       </c>
@@ -20299,7 +20300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="81" t="s">
         <v>199</v>
       </c>
@@ -20398,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="81" t="s">
         <v>199</v>
       </c>
@@ -20497,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="81" t="s">
         <v>199</v>
       </c>
@@ -20596,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="81" t="s">
         <v>199</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="81" t="s">
         <v>199</v>
       </c>
@@ -20794,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="81" t="s">
         <v>199</v>
       </c>
@@ -20893,7 +20894,7 @@
         <v>5691.8099999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="81" t="s">
         <v>199</v>
       </c>
@@ -20992,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="81" t="s">
         <v>199</v>
       </c>
@@ -21091,7 +21092,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="81" t="s">
         <v>199</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="81" t="s">
         <v>199</v>
       </c>
@@ -21284,7 +21285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="81" t="s">
         <v>199</v>
       </c>
@@ -21376,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="81" t="s">
         <v>199</v>
       </c>
@@ -21468,7 +21469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="81" t="s">
         <v>231</v>
       </c>
@@ -21573,7 +21574,7 @@
         <v>654001.57999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="81" t="s">
         <v>231</v>
       </c>
@@ -21679,7 +21680,7 @@
       </c>
       <c r="AI200" s="39"/>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="81" t="s">
         <v>231</v>
       </c>
@@ -21777,7 +21778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="81" t="s">
         <v>231</v>
       </c>
@@ -21883,7 +21884,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="81" t="s">
         <v>231</v>
       </c>
@@ -21981,7 +21982,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="81" t="s">
         <v>231</v>
       </c>
@@ -22079,7 +22080,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="81" t="s">
         <v>231</v>
       </c>
@@ -22177,7 +22178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="81" t="s">
         <v>231</v>
       </c>
@@ -22275,7 +22276,7 @@
         <v>152428.45652173911</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="81" t="s">
         <v>231</v>
       </c>
@@ -22373,7 +22374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="81" t="s">
         <v>231</v>
       </c>
@@ -22471,7 +22472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="81" t="s">
         <v>231</v>
       </c>
@@ -22569,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="81" t="s">
         <v>231</v>
       </c>
@@ -22667,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="81" t="s">
         <v>231</v>
       </c>
@@ -22765,7 +22766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="81" t="s">
         <v>231</v>
       </c>
@@ -22863,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="81" t="s">
         <v>231</v>
       </c>
@@ -22961,7 +22962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="81" t="s">
         <v>231</v>
       </c>
@@ -23059,7 +23060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="81" t="s">
         <v>231</v>
       </c>
@@ -23157,7 +23158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="81" t="s">
         <v>231</v>
       </c>
@@ -23255,7 +23256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="81" t="s">
         <v>231</v>
       </c>
@@ -23353,7 +23354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="81" t="s">
         <v>231</v>
       </c>
@@ -23451,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="81" t="s">
         <v>231</v>
       </c>
@@ -23549,7 +23550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="81" t="s">
         <v>231</v>
       </c>
@@ -23647,7 +23648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="81" t="s">
         <v>231</v>
       </c>
@@ -23745,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="81" t="s">
         <v>231</v>
       </c>
@@ -23843,7 +23844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="81" t="s">
         <v>231</v>
       </c>
@@ -23991,8 +23992,8 @@
         <v>0.13</v>
       </c>
       <c r="R224" s="89"/>
-      <c r="T224" s="64">
-        <v>-30329.470000000099</v>
+      <c r="T224" s="59">
+        <v>0</v>
       </c>
       <c r="U224" s="64"/>
       <c r="V224" s="64">
@@ -24000,7 +24001,7 @@
       </c>
       <c r="W224" s="65">
         <f t="shared" si="36"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X224" s="65">
         <f t="shared" si="38"/>
@@ -24039,7 +24040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="81" t="s">
         <v>231</v>
       </c>
@@ -24137,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="81" t="s">
         <v>231</v>
       </c>
@@ -24235,7 +24236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="81" t="s">
         <v>231</v>
       </c>
@@ -24333,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="81" t="s">
         <v>231</v>
       </c>
@@ -24431,7 +24432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="81" t="s">
         <v>231</v>
       </c>
@@ -24529,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="81" t="s">
         <v>231</v>
       </c>
@@ -24627,7 +24628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="81" t="s">
         <v>231</v>
       </c>
@@ -24725,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="81" t="s">
         <v>231</v>
       </c>
@@ -24823,7 +24824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="81" t="s">
         <v>231</v>
       </c>
@@ -24921,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="81" t="s">
         <v>231</v>
       </c>
@@ -25019,7 +25020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="81" t="s">
         <v>231</v>
       </c>
@@ -25117,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="81" t="s">
         <v>231</v>
       </c>
@@ -25215,7 +25216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="81" t="s">
         <v>231</v>
       </c>
@@ -25313,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="81" t="s">
         <v>231</v>
       </c>
@@ -25411,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="81" t="s">
         <v>231</v>
       </c>
@@ -25509,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="81" t="s">
         <v>231</v>
       </c>
@@ -25607,7 +25608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="81" t="s">
         <v>231</v>
       </c>
@@ -25705,7 +25706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="81" t="s">
         <v>231</v>
       </c>
@@ -25803,7 +25804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="81" t="s">
         <v>231</v>
       </c>
@@ -25901,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="81" t="s">
         <v>231</v>
       </c>
@@ -25999,7 +26000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="81" t="s">
         <v>231</v>
       </c>
@@ -26097,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="81" t="s">
         <v>231</v>
       </c>
@@ -26195,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="81" t="s">
         <v>231</v>
       </c>
@@ -26293,7 +26294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="81" t="s">
         <v>231</v>
       </c>
@@ -26391,7 +26392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="81" t="s">
         <v>231</v>
       </c>
@@ -26489,7 +26490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="81" t="s">
         <v>231</v>
       </c>
@@ -26587,7 +26588,7 @@
         <v>13156.567567567565</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="81" t="s">
         <v>231</v>
       </c>
@@ -26685,7 +26686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="81" t="s">
         <v>231</v>
       </c>
@@ -26783,7 +26784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="81" t="s">
         <v>231</v>
       </c>
@@ -26881,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="81" t="s">
         <v>231</v>
       </c>
@@ -26979,7 +26980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="81" t="s">
         <v>231</v>
       </c>
@@ -27077,7 +27078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="81" t="s">
         <v>231</v>
       </c>
@@ -27175,7 +27176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="81" t="s">
         <v>231</v>
       </c>
@@ -27273,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="81" t="s">
         <v>231</v>
       </c>
@@ -27371,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="81" t="s">
         <v>231</v>
       </c>
@@ -27469,7 +27470,7 @@
         <v>281.06</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="81" t="s">
         <v>231</v>
       </c>
@@ -27567,7 +27568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="81" t="s">
         <v>231</v>
       </c>
@@ -27665,7 +27666,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="81" t="s">
         <v>231</v>
       </c>
@@ -27763,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="81" t="s">
         <v>231</v>
       </c>
@@ -27862,7 +27863,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="81" t="s">
         <v>231</v>
       </c>
@@ -27957,7 +27958,7 @@
         <v>43612.43</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="81" t="s">
         <v>231</v>
       </c>
@@ -28053,7 +28054,7 @@
         <v>95400</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="81" t="s">
         <v>237</v>
       </c>
@@ -28156,7 +28157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="81" t="s">
         <v>237</v>
       </c>
@@ -28261,7 +28262,7 @@
       </c>
       <c r="AI267" s="47"/>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="81" t="s">
         <v>237</v>
       </c>
@@ -28362,7 +28363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="81" t="s">
         <v>237</v>
       </c>
@@ -28466,7 +28467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="81" t="s">
         <v>237</v>
       </c>
@@ -28567,7 +28568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="81" t="s">
         <v>237</v>
       </c>
@@ -28668,7 +28669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="81" t="s">
         <v>237</v>
       </c>
@@ -28769,7 +28770,7 @@
         <v>99683.652173913055</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="81" t="s">
         <v>237</v>
       </c>
@@ -28870,7 +28871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="81" t="s">
         <v>237</v>
       </c>
@@ -28971,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="81" t="s">
         <v>237</v>
       </c>
@@ -29072,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="81" t="s">
         <v>237</v>
       </c>
@@ -29173,7 +29174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="81" t="s">
         <v>237</v>
       </c>
@@ -29274,7 +29275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="81" t="s">
         <v>237</v>
       </c>
@@ -29375,7 +29376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="81" t="s">
         <v>237</v>
       </c>
@@ -29476,7 +29477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="81" t="s">
         <v>237</v>
       </c>
@@ -29577,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="81" t="s">
         <v>237</v>
       </c>
@@ -29678,7 +29679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="81" t="s">
         <v>237</v>
       </c>
@@ -29779,7 +29780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="81" t="s">
         <v>237</v>
       </c>
@@ -29880,7 +29881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="81" t="s">
         <v>237</v>
       </c>
@@ -29981,7 +29982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="81" t="s">
         <v>237</v>
       </c>
@@ -30082,7 +30083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="81" t="s">
         <v>237</v>
       </c>
@@ -30183,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="81" t="s">
         <v>237</v>
       </c>
@@ -30284,7 +30285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="81" t="s">
         <v>237</v>
       </c>
@@ -30385,7 +30386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="81" t="s">
         <v>237</v>
       </c>
@@ -30536,8 +30537,8 @@
         <v>0.13</v>
       </c>
       <c r="R290" s="91"/>
-      <c r="T290" s="69">
-        <v>-30329.470000000099</v>
+      <c r="T290" s="59">
+        <v>0</v>
       </c>
       <c r="U290" s="69"/>
       <c r="V290" s="69">
@@ -30545,7 +30546,7 @@
       </c>
       <c r="W290" s="65">
         <f t="shared" si="45"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X290" s="65">
         <f t="shared" si="46"/>
@@ -30587,7 +30588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="81" t="s">
         <v>237</v>
       </c>
@@ -30688,7 +30689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="81" t="s">
         <v>237</v>
       </c>
@@ -30789,7 +30790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="81" t="s">
         <v>237</v>
       </c>
@@ -30890,7 +30891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="81" t="s">
         <v>237</v>
       </c>
@@ -30991,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="81" t="s">
         <v>237</v>
       </c>
@@ -31092,7 +31093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="81" t="s">
         <v>237</v>
       </c>
@@ -31193,7 +31194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="81" t="s">
         <v>237</v>
       </c>
@@ -31294,7 +31295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="81" t="s">
         <v>237</v>
       </c>
@@ -31395,7 +31396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="81" t="s">
         <v>237</v>
       </c>
@@ -31496,7 +31497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="81" t="s">
         <v>237</v>
       </c>
@@ -31597,7 +31598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="81" t="s">
         <v>237</v>
       </c>
@@ -31698,7 +31699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="81" t="s">
         <v>237</v>
       </c>
@@ -31799,7 +31800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="81" t="s">
         <v>237</v>
       </c>
@@ -31900,7 +31901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="81" t="s">
         <v>237</v>
       </c>
@@ -32001,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="81" t="s">
         <v>237</v>
       </c>
@@ -32102,7 +32103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="81" t="s">
         <v>237</v>
       </c>
@@ -32203,7 +32204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="81" t="s">
         <v>237</v>
       </c>
@@ -32304,7 +32305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="81" t="s">
         <v>237</v>
       </c>
@@ -32405,7 +32406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="81" t="s">
         <v>237</v>
       </c>
@@ -32506,7 +32507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="81" t="s">
         <v>237</v>
       </c>
@@ -32607,7 +32608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="81" t="s">
         <v>237</v>
       </c>
@@ -32708,7 +32709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="81" t="s">
         <v>237</v>
       </c>
@@ -32809,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="81" t="s">
         <v>237</v>
       </c>
@@ -32910,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="81" t="s">
         <v>237</v>
       </c>
@@ -33011,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="81" t="s">
         <v>237</v>
       </c>
@@ -33112,7 +33113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="81" t="s">
         <v>237</v>
       </c>
@@ -33213,7 +33214,7 @@
         <v>5674.1891891891892</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="81" t="s">
         <v>237</v>
       </c>
@@ -33314,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="81" t="s">
         <v>237</v>
       </c>
@@ -33415,7 +33416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="81" t="s">
         <v>237</v>
       </c>
@@ -33516,7 +33517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="81" t="s">
         <v>237</v>
       </c>
@@ -33617,7 +33618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="81" t="s">
         <v>237</v>
       </c>
@@ -33718,7 +33719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="81" t="s">
         <v>237</v>
       </c>
@@ -33819,7 +33820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="81" t="s">
         <v>237</v>
       </c>
@@ -33920,7 +33921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="81" t="s">
         <v>237</v>
       </c>
@@ -34021,7 +34022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="81" t="s">
         <v>237</v>
       </c>
@@ -34122,7 +34123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="81" t="s">
         <v>237</v>
       </c>
@@ -34223,7 +34224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="81" t="s">
         <v>237</v>
       </c>
@@ -34324,7 +34325,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="81" t="s">
         <v>237</v>
       </c>
@@ -34425,7 +34426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="81" t="s">
         <v>237</v>
       </c>
@@ -34529,7 +34530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="81" t="s">
         <v>237</v>
       </c>
@@ -34634,7 +34635,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="81" t="s">
         <v>237</v>
       </c>
@@ -34736,7 +34737,7 @@
         <v>67260.759999999995</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="81" t="s">
         <v>242</v>
       </c>
@@ -34826,7 +34827,7 @@
         <v>1980003.2549999999</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="81" t="s">
         <v>242</v>
       </c>
@@ -34917,7 +34918,7 @@
         <v>856319.46538461547</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="81" t="s">
         <v>242</v>
       </c>
@@ -35008,7 +35009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="81" t="s">
         <v>242</v>
       </c>
@@ -35099,7 +35100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="81" t="s">
         <v>242</v>
       </c>
@@ -35190,7 +35191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="81" t="s">
         <v>242</v>
       </c>
@@ -35281,7 +35282,7 @@
         <v>14646.804347826088</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="81" t="s">
         <v>242</v>
       </c>
@@ -35372,7 +35373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="81" t="s">
         <v>242</v>
       </c>
@@ -35463,7 +35464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="81" t="s">
         <v>242</v>
       </c>
@@ -35554,7 +35555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="81" t="s">
         <v>242</v>
       </c>
@@ -35645,7 +35646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="81" t="s">
         <v>242</v>
       </c>
@@ -35736,7 +35737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="81" t="s">
         <v>242</v>
       </c>
@@ -35827,7 +35828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="81" t="s">
         <v>242</v>
       </c>
@@ -35918,7 +35919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="81" t="s">
         <v>242</v>
       </c>
@@ -36009,7 +36010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="81" t="s">
         <v>242</v>
       </c>
@@ -36100,7 +36101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="81" t="s">
         <v>242</v>
       </c>
@@ -36191,7 +36192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="81" t="s">
         <v>242</v>
       </c>
@@ -36282,7 +36283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="81" t="s">
         <v>242</v>
       </c>
@@ -36373,7 +36374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="81" t="s">
         <v>242</v>
       </c>
@@ -36464,7 +36465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="81" t="s">
         <v>242</v>
       </c>
@@ -36555,7 +36556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="81" t="s">
         <v>242</v>
       </c>
@@ -36646,7 +36647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="81" t="s">
         <v>242</v>
       </c>
@@ -36737,7 +36738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="81" t="s">
         <v>242</v>
       </c>
@@ -36878,8 +36879,8 @@
         <v>0.13</v>
       </c>
       <c r="R355" s="16"/>
-      <c r="T355" s="64">
-        <v>-30329.470000000099</v>
+      <c r="T355" s="59">
+        <v>0</v>
       </c>
       <c r="U355" s="64"/>
       <c r="V355" s="64">
@@ -36887,7 +36888,7 @@
       </c>
       <c r="W355" s="65">
         <f t="shared" si="54"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X355" s="65">
         <f t="shared" si="53"/>
@@ -36919,7 +36920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="81" t="s">
         <v>242</v>
       </c>
@@ -37010,7 +37011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="81" t="s">
         <v>242</v>
       </c>
@@ -37101,7 +37102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="81" t="s">
         <v>242</v>
       </c>
@@ -37192,7 +37193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="81" t="s">
         <v>242</v>
       </c>
@@ -37283,7 +37284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="81" t="s">
         <v>242</v>
       </c>
@@ -37374,7 +37375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="81" t="s">
         <v>242</v>
       </c>
@@ -37465,7 +37466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="81" t="s">
         <v>242</v>
       </c>
@@ -37556,7 +37557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="81" t="s">
         <v>242</v>
       </c>
@@ -37647,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="81" t="s">
         <v>242</v>
       </c>
@@ -37738,7 +37739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="81" t="s">
         <v>242</v>
       </c>
@@ -37829,7 +37830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="81" t="s">
         <v>242</v>
       </c>
@@ -37920,7 +37921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="81" t="s">
         <v>242</v>
       </c>
@@ -38011,7 +38012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="81" t="s">
         <v>242</v>
       </c>
@@ -38102,7 +38103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="81" t="s">
         <v>242</v>
       </c>
@@ -38193,7 +38194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="81" t="s">
         <v>242</v>
       </c>
@@ -38284,7 +38285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="81" t="s">
         <v>242</v>
       </c>
@@ -38375,7 +38376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="81" t="s">
         <v>242</v>
       </c>
@@ -38466,7 +38467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="81" t="s">
         <v>242</v>
       </c>
@@ -38557,7 +38558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="81" t="s">
         <v>242</v>
       </c>
@@ -38648,7 +38649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="81" t="s">
         <v>242</v>
       </c>
@@ -38739,7 +38740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="81" t="s">
         <v>242</v>
       </c>
@@ -38830,7 +38831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="81" t="s">
         <v>242</v>
       </c>
@@ -38921,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="81" t="s">
         <v>242</v>
       </c>
@@ -39012,7 +39013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="81" t="s">
         <v>242</v>
       </c>
@@ -39103,7 +39104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="81" t="s">
         <v>242</v>
       </c>
@@ -39194,7 +39195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="81" t="s">
         <v>242</v>
       </c>
@@ -39285,7 +39286,7 @@
         <v>691.94594594594594</v>
       </c>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="81" t="s">
         <v>242</v>
       </c>
@@ -39376,7 +39377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="81" t="s">
         <v>242</v>
       </c>
@@ -39467,7 +39468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="81" t="s">
         <v>242</v>
       </c>
@@ -39558,7 +39559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="81" t="s">
         <v>242</v>
       </c>
@@ -39649,7 +39650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="81" t="s">
         <v>242</v>
       </c>
@@ -39740,7 +39741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="81" t="s">
         <v>242</v>
       </c>
@@ -39831,7 +39832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="81" t="s">
         <v>242</v>
       </c>
@@ -39922,7 +39923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="81" t="s">
         <v>242</v>
       </c>
@@ -40013,7 +40014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="81" t="s">
         <v>242</v>
       </c>
@@ -40104,7 +40105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="81" t="s">
         <v>242</v>
       </c>
@@ -40195,7 +40196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="81" t="s">
         <v>242</v>
       </c>
@@ -40286,7 +40287,7 @@
         <v>3.1699999999999995</v>
       </c>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="81" t="s">
         <v>242</v>
       </c>
@@ -40377,7 +40378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="81" t="s">
         <v>243</v>
       </c>
@@ -40476,7 +40477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="81" t="s">
         <v>243</v>
       </c>
@@ -40575,7 +40576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="81" t="s">
         <v>243</v>
       </c>
@@ -40674,7 +40675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="81" t="s">
         <v>243</v>
       </c>
@@ -40773,7 +40774,7 @@
         <v>165.99275362318841</v>
       </c>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="81" t="s">
         <v>243</v>
       </c>
@@ -40872,7 +40873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="81" t="s">
         <v>243</v>
       </c>
@@ -40971,7 +40972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="81" t="s">
         <v>243</v>
       </c>
@@ -41070,7 +41071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="81" t="s">
         <v>243</v>
       </c>
@@ -41169,7 +41170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="81" t="s">
         <v>243</v>
       </c>
@@ -41268,7 +41269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="81" t="s">
         <v>243</v>
       </c>
@@ -41367,7 +41368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="81" t="s">
         <v>243</v>
       </c>
@@ -41466,7 +41467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="81" t="s">
         <v>243</v>
       </c>
@@ -41565,7 +41566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="81" t="s">
         <v>243</v>
       </c>
@@ -41664,7 +41665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="81" t="s">
         <v>243</v>
       </c>
@@ -41763,7 +41764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="81" t="s">
         <v>243</v>
       </c>
@@ -41862,7 +41863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="81" t="s">
         <v>243</v>
       </c>
@@ -41961,7 +41962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="81" t="s">
         <v>243</v>
       </c>
@@ -42060,7 +42061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="81" t="s">
         <v>243</v>
       </c>
@@ -42159,7 +42160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="81" t="s">
         <v>243</v>
       </c>
@@ -42258,7 +42259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="81" t="s">
         <v>243</v>
       </c>
@@ -42357,7 +42358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="81" t="s">
         <v>243</v>
       </c>
@@ -42506,8 +42507,8 @@
         <v>0.13</v>
       </c>
       <c r="R415" s="16"/>
-      <c r="T415" s="64">
-        <v>-30329.470000000099</v>
+      <c r="T415" s="59">
+        <v>0</v>
       </c>
       <c r="U415" s="64"/>
       <c r="V415" s="64">
@@ -42515,7 +42516,7 @@
       </c>
       <c r="W415" s="65">
         <f t="shared" si="62"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X415" s="65">
         <f t="shared" si="61"/>
@@ -42555,7 +42556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="81" t="s">
         <v>243</v>
       </c>
@@ -42654,7 +42655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="81" t="s">
         <v>243</v>
       </c>
@@ -42753,7 +42754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="81" t="s">
         <v>243</v>
       </c>
@@ -42852,7 +42853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="81" t="s">
         <v>243</v>
       </c>
@@ -42951,7 +42952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="81" t="s">
         <v>243</v>
       </c>
@@ -43050,7 +43051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="81" t="s">
         <v>243</v>
       </c>
@@ -43149,7 +43150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="81" t="s">
         <v>243</v>
       </c>
@@ -43248,7 +43249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="81" t="s">
         <v>243</v>
       </c>
@@ -43347,7 +43348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="81" t="s">
         <v>243</v>
       </c>
@@ -43446,7 +43447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="81" t="s">
         <v>243</v>
       </c>
@@ -43545,7 +43546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="81" t="s">
         <v>243</v>
       </c>
@@ -43644,7 +43645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="81" t="s">
         <v>243</v>
       </c>
@@ -43743,7 +43744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="81" t="s">
         <v>243</v>
       </c>
@@ -43842,7 +43843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="81" t="s">
         <v>243</v>
       </c>
@@ -43941,7 +43942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="81" t="s">
         <v>243</v>
       </c>
@@ -44040,7 +44041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="81" t="s">
         <v>243</v>
       </c>
@@ -44139,7 +44140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="81" t="s">
         <v>243</v>
       </c>
@@ -44238,7 +44239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="81" t="s">
         <v>243</v>
       </c>
@@ -44337,7 +44338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="81" t="s">
         <v>243</v>
       </c>
@@ -44436,7 +44437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="81" t="s">
         <v>243</v>
       </c>
@@ -44535,7 +44536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="81" t="s">
         <v>243</v>
       </c>
@@ -44634,7 +44635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="81" t="s">
         <v>243</v>
       </c>
@@ -44733,7 +44734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="81" t="s">
         <v>243</v>
       </c>
@@ -44832,7 +44833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="81" t="s">
         <v>243</v>
       </c>
@@ -44931,7 +44932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="81" t="s">
         <v>243</v>
       </c>
@@ -45030,7 +45031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="81" t="s">
         <v>243</v>
       </c>
@@ -45129,7 +45130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="81" t="s">
         <v>243</v>
       </c>
@@ -45230,7 +45231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="81" t="s">
         <v>243</v>
       </c>
@@ -45329,7 +45330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="81" t="s">
         <v>243</v>
       </c>
@@ -45428,7 +45429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="81" t="s">
         <v>243</v>
       </c>
@@ -45527,7 +45528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="81" t="s">
         <v>243</v>
       </c>
@@ -45626,7 +45627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="81" t="s">
         <v>243</v>
       </c>
@@ -45725,7 +45726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="81" t="s">
         <v>243</v>
       </c>
@@ -45824,7 +45825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="81" t="s">
         <v>243</v>
       </c>
@@ -45923,7 +45924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="81" t="s">
         <v>243</v>
       </c>
@@ -46022,7 +46023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="81" t="s">
         <v>243</v>
       </c>
@@ -46121,7 +46122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="81" t="s">
         <v>243</v>
       </c>
@@ -46220,7 +46221,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="453" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="81" t="s">
         <v>243</v>
       </c>
@@ -46318,7 +46319,7 @@
         <v>1663.4859154929575</v>
       </c>
     </row>
-    <row r="454" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="81" t="s">
         <v>243</v>
       </c>
@@ -46419,7 +46420,7 @@
       </c>
       <c r="AI454" s="82"/>
     </row>
-    <row r="455" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="81" t="s">
         <v>253</v>
       </c>
@@ -46515,7 +46516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="81" t="s">
         <v>253</v>
       </c>
@@ -46609,7 +46610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="81" t="s">
         <v>253</v>
       </c>
@@ -46703,7 +46704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="81" t="s">
         <v>253</v>
       </c>
@@ -46797,7 +46798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="81" t="s">
         <v>253</v>
       </c>
@@ -46891,7 +46892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="81" t="s">
         <v>253</v>
       </c>
@@ -46985,7 +46986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="81" t="s">
         <v>253</v>
       </c>
@@ -47079,7 +47080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="81" t="s">
         <v>253</v>
       </c>
@@ -47173,7 +47174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="81" t="s">
         <v>253</v>
       </c>
@@ -47267,7 +47268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="81" t="s">
         <v>253</v>
       </c>
@@ -47361,7 +47362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="81" t="s">
         <v>253</v>
       </c>
@@ -47455,7 +47456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="81" t="s">
         <v>253</v>
       </c>
@@ -47549,7 +47550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="81" t="s">
         <v>253</v>
       </c>
@@ -47643,7 +47644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="81" t="s">
         <v>253</v>
       </c>
@@ -47737,7 +47738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="81" t="s">
         <v>253</v>
       </c>
@@ -47831,7 +47832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="81" t="s">
         <v>253</v>
       </c>
@@ -47925,7 +47926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="81" t="s">
         <v>253</v>
       </c>
@@ -48019,7 +48020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="81" t="s">
         <v>253</v>
       </c>
@@ -48113,7 +48114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="81" t="s">
         <v>253</v>
       </c>
@@ -48207,7 +48208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="81" t="s">
         <v>253</v>
       </c>
@@ -48301,7 +48302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="81" t="s">
         <v>253</v>
       </c>
@@ -48395,7 +48396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="81" t="s">
         <v>253</v>
       </c>
@@ -48539,8 +48540,8 @@
         <v>0.13</v>
       </c>
       <c r="R477" s="16"/>
-      <c r="T477" s="86">
-        <v>-30329.470000000099</v>
+      <c r="T477" s="59">
+        <v>0</v>
       </c>
       <c r="U477" s="86"/>
       <c r="V477" s="86">
@@ -48548,7 +48549,7 @@
       </c>
       <c r="W477" s="87">
         <f t="shared" si="68"/>
-        <v>-30329.470000000099</v>
+        <v>0</v>
       </c>
       <c r="X477" s="87">
         <f t="shared" si="65"/>
@@ -48583,7 +48584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="81" t="s">
         <v>253</v>
       </c>
@@ -48677,7 +48678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="81" t="s">
         <v>253</v>
       </c>
@@ -48771,7 +48772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="81" t="s">
         <v>253</v>
       </c>
@@ -48865,7 +48866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="81" t="s">
         <v>253</v>
       </c>
@@ -48959,7 +48960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="81" t="s">
         <v>253</v>
       </c>
@@ -49053,7 +49054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="81" t="s">
         <v>253</v>
       </c>
@@ -49147,7 +49148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="81" t="s">
         <v>253</v>
       </c>
@@ -49241,7 +49242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="81" t="s">
         <v>253</v>
       </c>
@@ -49335,7 +49336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="81" t="s">
         <v>253</v>
       </c>
@@ -49429,7 +49430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="81" t="s">
         <v>253</v>
       </c>
@@ -49523,7 +49524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="81" t="s">
         <v>253</v>
       </c>
@@ -49617,7 +49618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="81" t="s">
         <v>253</v>
       </c>
@@ -49711,7 +49712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="81" t="s">
         <v>253</v>
       </c>
@@ -49805,7 +49806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="81" t="s">
         <v>253</v>
       </c>
@@ -49899,7 +49900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="81" t="s">
         <v>253</v>
       </c>
@@ -49993,7 +49994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="81" t="s">
         <v>253</v>
       </c>
@@ -50087,7 +50088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="81" t="s">
         <v>253</v>
       </c>
@@ -50181,7 +50182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="81" t="s">
         <v>253</v>
       </c>
@@ -50275,7 +50276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="81" t="s">
         <v>253</v>
       </c>
@@ -50369,7 +50370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="81" t="s">
         <v>253</v>
       </c>
@@ -50463,7 +50464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="81" t="s">
         <v>253</v>
       </c>
@@ -50557,7 +50558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="81" t="s">
         <v>253</v>
       </c>
@@ -50651,7 +50652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="81" t="s">
         <v>253</v>
       </c>
@@ -50745,7 +50746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="81" t="s">
         <v>253</v>
       </c>
@@ -50839,7 +50840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="81" t="s">
         <v>253</v>
       </c>
@@ -50933,7 +50934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="81" t="s">
         <v>253</v>
       </c>
@@ -51027,7 +51028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="81" t="s">
         <v>253</v>
       </c>
@@ -51121,7 +51122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="81" t="s">
         <v>253</v>
       </c>
@@ -51215,7 +51216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="81" t="s">
         <v>253</v>
       </c>
@@ -51309,7 +51310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="81" t="s">
         <v>253</v>
       </c>
@@ -51403,7 +51404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="81" t="s">
         <v>253</v>
       </c>
@@ -51497,7 +51498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="81" t="s">
         <v>253</v>
       </c>
@@ -51591,7 +51592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="81" t="s">
         <v>253</v>
       </c>
@@ -51685,7 +51686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="81" t="s">
         <v>253</v>
       </c>
@@ -51779,7 +51780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="81" t="s">
         <v>253</v>
       </c>
@@ -51873,7 +51874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="81" t="s">
         <v>253</v>
       </c>
@@ -51967,7 +51968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="81" t="s">
         <v>253</v>
       </c>
@@ -52058,7 +52059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="81" t="s">
         <v>253</v>
       </c>
@@ -52152,7 +52153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="81" t="s">
         <v>236</v>
       </c>
@@ -52245,7 +52246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="81" t="s">
         <v>236</v>
       </c>
@@ -52338,7 +52339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="81" t="s">
         <v>236</v>
       </c>
@@ -52431,7 +52432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="81" t="s">
         <v>236</v>
       </c>
@@ -52524,7 +52525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="81" t="s">
         <v>236</v>
       </c>
@@ -52617,7 +52618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="81" t="s">
         <v>236</v>
       </c>
@@ -52710,7 +52711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="81" t="s">
         <v>236</v>
       </c>
@@ -52803,7 +52804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="81" t="s">
         <v>236</v>
       </c>
@@ -52896,7 +52897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="81" t="s">
         <v>236</v>
       </c>
@@ -52989,7 +52990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="81" t="s">
         <v>236</v>
       </c>
@@ -53082,7 +53083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="81" t="s">
         <v>236</v>
       </c>
@@ -53175,7 +53176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="81" t="s">
         <v>236</v>
       </c>
@@ -53268,7 +53269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="81" t="s">
         <v>236</v>
       </c>
@@ -53361,7 +53362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="81" t="s">
         <v>236</v>
       </c>
@@ -53454,7 +53455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="81" t="s">
         <v>236</v>
       </c>
@@ -53547,7 +53548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="81" t="s">
         <v>236</v>
       </c>
@@ -53640,7 +53641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="81" t="s">
         <v>236</v>
       </c>
@@ -53733,7 +53734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="81" t="s">
         <v>236</v>
       </c>
@@ -53826,7 +53827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="81" t="s">
         <v>236</v>
       </c>
@@ -53919,7 +53920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="81" t="s">
         <v>236</v>
       </c>
@@ -54012,7 +54013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="81" t="s">
         <v>236</v>
       </c>
@@ -54198,7 +54199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="81" t="s">
         <v>236</v>
       </c>
@@ -54291,7 +54292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="81" t="s">
         <v>236</v>
       </c>
@@ -54384,7 +54385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="81" t="s">
         <v>236</v>
       </c>
@@ -54477,7 +54478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="81" t="s">
         <v>236</v>
       </c>
@@ -54570,7 +54571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="81" t="s">
         <v>236</v>
       </c>
@@ -54663,7 +54664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="81" t="s">
         <v>236</v>
       </c>
@@ -54756,7 +54757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="81" t="s">
         <v>236</v>
       </c>
@@ -54849,7 +54850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="81" t="s">
         <v>236</v>
       </c>
@@ -54942,7 +54943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="81" t="s">
         <v>236</v>
       </c>
@@ -55035,7 +55036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="81" t="s">
         <v>236</v>
       </c>
@@ -55128,7 +55129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="81" t="s">
         <v>236</v>
       </c>
@@ -55221,7 +55222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="81" t="s">
         <v>236</v>
       </c>
@@ -55314,7 +55315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="81" t="s">
         <v>236</v>
       </c>
@@ -55407,7 +55408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="81" t="s">
         <v>236</v>
       </c>
@@ -55500,7 +55501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="81" t="s">
         <v>236</v>
       </c>
@@ -55593,7 +55594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="81" t="s">
         <v>236</v>
       </c>
@@ -55686,7 +55687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="81" t="s">
         <v>236</v>
       </c>
@@ -55779,7 +55780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="81" t="s">
         <v>236</v>
       </c>
@@ -55872,7 +55873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" s="81" t="s">
         <v>236</v>
       </c>
@@ -55965,7 +55966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="81" t="s">
         <v>236</v>
       </c>
@@ -56058,7 +56059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="81" t="s">
         <v>236</v>
       </c>
@@ -56151,7 +56152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="81" t="s">
         <v>236</v>
       </c>
@@ -56244,7 +56245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="81" t="s">
         <v>236</v>
       </c>
@@ -56337,7 +56338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="81" t="s">
         <v>236</v>
       </c>
@@ -56430,7 +56431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="81" t="s">
         <v>236</v>
       </c>
@@ -56522,7 +56523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="81" t="s">
         <v>236</v>
       </c>
@@ -56615,7 +56616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="81" t="s">
         <v>236</v>
       </c>
@@ -56708,7 +56709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="81" t="s">
         <v>236</v>
       </c>
@@ -56801,7 +56802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="81" t="s">
         <v>236</v>
       </c>
@@ -56894,7 +56895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="81" t="s">
         <v>236</v>
       </c>
@@ -56987,7 +56988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="81" t="s">
         <v>236</v>
       </c>
@@ -57080,7 +57081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="81" t="s">
         <v>236</v>
       </c>
@@ -57173,7 +57174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="81" t="s">
         <v>236</v>
       </c>
@@ -57266,7 +57267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="81" t="s">
         <v>236</v>
       </c>
@@ -57359,7 +57360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="81" t="s">
         <v>236</v>
       </c>
@@ -57452,7 +57453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="81" t="s">
         <v>236</v>
       </c>
@@ -57545,7 +57546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="81" t="s">
         <v>236</v>
       </c>
@@ -57638,7 +57639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="81" t="s">
         <v>236</v>
       </c>
@@ -57732,7 +57733,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK575"/>
+  <autoFilter ref="A1:AK575">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北京多彩互动广告有限公司-广州掌昆网络科技有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
@@ -2031,27 +2031,27 @@
   <dimension ref="A1:AK575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T581" sqref="T581"/>
+      <selection pane="bottomRight" activeCell="U576" sqref="U576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="16"/>
-    <col min="3" max="3" width="12.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="16"/>
-    <col min="5" max="5" width="25.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.08984375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="16" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="16" customWidth="1"/>
     <col min="7" max="7" width="28.90625" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" style="54" customWidth="1"/>
     <col min="9" max="9" width="33.08984375" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="16" customWidth="1"/>
     <col min="11" max="11" width="12.7265625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9" style="16" customWidth="1"/>
-    <col min="13" max="13" width="28.90625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="16" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" style="16" customWidth="1"/>
     <col min="14" max="16" width="8.90625" style="16"/>
     <col min="17" max="17" width="9.08984375" style="20" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.453125" style="9" bestFit="1" customWidth="1"/>
@@ -2060,14 +2060,14 @@
     <col min="21" max="22" width="13" style="62" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20.36328125" style="62" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="62" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="66" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7265625" style="66" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.36328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.36328125" style="66" customWidth="1"/>
-    <col min="31" max="31" width="9.90625" style="67" customWidth="1"/>
-    <col min="32" max="32" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.08984375" style="20" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.453125" style="24" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="16" style="66" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7265625" style="66" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.36328125" style="24" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="13.36328125" style="66" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.90625" style="67" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="15" style="24" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="9.08984375" style="20" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="24" customWidth="1"/>
     <col min="35" max="35" width="11.08984375" style="16" bestFit="1" customWidth="1"/>
@@ -2190,7 +2190,7 @@
         <v>12166478.754369844</v>
       </c>
     </row>
-    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>182</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>182</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>182</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="81" t="s">
         <v>185</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="81" t="s">
         <v>185</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="81" t="s">
         <v>185</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A136" s="81" t="s">
         <v>199</v>
       </c>
@@ -15449,7 +15449,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A138" s="81" t="s">
         <v>199</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="81" t="s">
         <v>199</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A203" s="81" t="s">
         <v>231</v>
       </c>
@@ -22080,7 +22080,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A205" s="81" t="s">
         <v>231</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="81" t="s">
         <v>231</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A270" s="81" t="s">
         <v>237</v>
       </c>
@@ -28568,7 +28568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A271" s="81" t="s">
         <v>237</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="81" t="s">
         <v>237</v>
       </c>
@@ -35009,7 +35009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A335" s="81" t="s">
         <v>242</v>
       </c>
@@ -35100,7 +35100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A336" s="81" t="s">
         <v>242</v>
       </c>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="81" t="s">
         <v>242</v>
       </c>
@@ -40477,7 +40477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A395" s="81" t="s">
         <v>243</v>
       </c>
@@ -40576,7 +40576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A396" s="81" t="s">
         <v>243</v>
       </c>
@@ -42457,7 +42457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="81" t="s">
         <v>243</v>
       </c>
@@ -46610,7 +46610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A457" s="81" t="s">
         <v>253</v>
       </c>
@@ -46704,7 +46704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A458" s="81" t="s">
         <v>253</v>
       </c>
@@ -48490,7 +48490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="81" t="s">
         <v>253</v>
       </c>
@@ -52339,7 +52339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A518" s="81" t="s">
         <v>236</v>
       </c>
@@ -54106,7 +54106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="81" t="s">
         <v>236</v>
       </c>
@@ -57734,9 +57734,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK575">
-    <filterColumn colId="5">
+    <filterColumn colId="12">
       <filters>
-        <filter val="北京多彩互动广告有限公司-广州掌昆网络科技有限公司"/>
+        <filter val="北京陌陌科技有限公司"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="CPC"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
+++ b/金源2019-2021/2021年1-9月金源消耗表（财务运营共享版）.xlsx
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8332" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8341" uniqueCount="261">
   <si>
     <t>媒体名称</t>
   </si>
@@ -1179,6 +1179,10 @@
   </si>
   <si>
     <t>2021年9月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑超</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2031,51 +2035,51 @@
   <dimension ref="A1:AK575"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U576" sqref="U576"/>
+      <selection pane="bottomRight" activeCell="S577" sqref="S577"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10" style="81" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" style="16" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="16" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="16" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="16" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="33.08984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="16" customWidth="1"/>
     <col min="12" max="12" width="9" style="16" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="16" customWidth="1"/>
-    <col min="14" max="16" width="8.90625" style="16"/>
-    <col min="17" max="17" width="9.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="81"/>
+    <col min="13" max="13" width="13.5" style="16" customWidth="1"/>
+    <col min="14" max="16" width="8.875" style="16"/>
+    <col min="17" max="17" width="9.125" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="81"/>
     <col min="20" max="20" width="17" style="62" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="13" style="62" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.36328125" style="62" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.375" style="62" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" style="62" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" style="20" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" style="24" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.125" style="20" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" style="24" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="66" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7265625" style="66" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="13.36328125" style="24" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="13.36328125" style="66" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="9.90625" style="67" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="66" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.375" style="24" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="13.375" style="66" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.875" style="67" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="15" style="24" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="9.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.125" style="20" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="24" customWidth="1"/>
-    <col min="35" max="35" width="11.08984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="17.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.90625" style="9"/>
+    <col min="35" max="35" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="17.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="38" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="38" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2183,14 +2187,14 @@
       </c>
       <c r="AJ1" s="37">
         <f>SUM(AB:AB)</f>
-        <v>39710418.117392719</v>
+        <v>39710408.547392726</v>
       </c>
       <c r="AK1" s="37">
         <f>SUM(AA:AA)</f>
         <v>12166478.754369844</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="81" t="s">
         <v>182</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>681389.03125</v>
       </c>
     </row>
-    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="81" t="s">
         <v>182</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="81" t="s">
         <v>182</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>527252.29230769211</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
         <v>182</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>804004.7578125</v>
       </c>
     </row>
-    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="81" t="s">
         <v>182</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>437947.25362318842</v>
       </c>
     </row>
-    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="81" t="s">
         <v>182</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
         <v>182</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="81" t="s">
         <v>182</v>
       </c>
@@ -2948,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
         <v>182</v>
       </c>
@@ -3042,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
         <v>182</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
         <v>182</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
         <v>182</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
         <v>182</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81" t="s">
         <v>182</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>45505.852112676053</v>
       </c>
     </row>
-    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81" t="s">
         <v>182</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="81" t="s">
         <v>182</v>
       </c>
@@ -3700,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="81" t="s">
         <v>182</v>
       </c>
@@ -3794,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="81" t="s">
         <v>182</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="81" t="s">
         <v>182</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="81" t="s">
         <v>182</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="81" t="s">
         <v>182</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="81" t="s">
         <v>182</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="81" t="s">
         <v>182</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="81" t="s">
         <v>182</v>
       </c>
@@ -4452,7 +4456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="81" t="s">
         <v>182</v>
       </c>
@@ -4546,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="81" t="s">
         <v>182</v>
       </c>
@@ -4640,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="81" t="s">
         <v>182</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="81" t="s">
         <v>182</v>
       </c>
@@ -4828,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="81" t="s">
         <v>182</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="81" t="s">
         <v>182</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="81" t="s">
         <v>182</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="81" t="s">
         <v>182</v>
       </c>
@@ -5204,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="81" t="s">
         <v>182</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="81" t="s">
         <v>182</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="81" t="s">
         <v>182</v>
       </c>
@@ -5486,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="81" t="s">
         <v>182</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="81" t="s">
         <v>182</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="81" t="s">
         <v>182</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="81" t="s">
         <v>182</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="81" t="s">
         <v>182</v>
       </c>
@@ -5956,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="81" t="s">
         <v>182</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="81" t="s">
         <v>182</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="81" t="s">
         <v>182</v>
       </c>
@@ -6238,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="81" t="s">
         <v>182</v>
       </c>
@@ -6332,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="81" t="s">
         <v>182</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="81" t="s">
         <v>182</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="81" t="s">
         <v>182</v>
       </c>
@@ -6614,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49" s="81" t="s">
         <v>182</v>
       </c>
@@ -6708,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="81" t="s">
         <v>182</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="81" t="s">
         <v>182</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="81" t="s">
         <v>182</v>
       </c>
@@ -6990,7 +6994,7 @@
         <v>32.795774647887313</v>
       </c>
     </row>
-    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="81" t="s">
         <v>182</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="81" t="s">
         <v>182</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="81" t="s">
         <v>182</v>
       </c>
@@ -7272,7 +7276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="81" t="s">
         <v>182</v>
       </c>
@@ -7366,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="81" t="s">
         <v>182</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="81" t="s">
         <v>182</v>
       </c>
@@ -7554,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="81" t="s">
         <v>182</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="81" t="s">
         <v>182</v>
       </c>
@@ -7742,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="81" t="s">
         <v>182</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62" s="81" t="s">
         <v>182</v>
       </c>
@@ -7881,6 +7885,9 @@
       </c>
       <c r="Q62" s="23">
         <v>0</v>
+      </c>
+      <c r="S62" s="81" t="s">
+        <v>260</v>
       </c>
       <c r="T62" s="59">
         <v>0</v>
@@ -7893,8 +7900,7 @@
         <v>-1.23</v>
       </c>
       <c r="X62" s="60">
-        <f t="shared" si="3"/>
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="18">
         <v>0</v>
@@ -7905,11 +7911,11 @@
       </c>
       <c r="AB62" s="64">
         <f t="shared" si="5"/>
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="68">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AD62" s="64">
         <v>1.23</v>
@@ -7929,7 +7935,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="81" t="s">
         <v>182</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="81" t="s">
         <v>182</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="81" t="s">
         <v>182</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="81" t="s">
         <v>182</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="81" t="s">
         <v>185</v>
       </c>
@@ -8396,7 +8402,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="81" t="s">
         <v>185</v>
       </c>
@@ -8497,7 +8503,7 @@
         <v>836764.81249999977</v>
       </c>
     </row>
-    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="81" t="s">
         <v>185</v>
       </c>
@@ -8598,7 +8604,7 @@
         <v>215279.15942028977</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="81" t="s">
         <v>185</v>
       </c>
@@ -8699,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="81" t="s">
         <v>185</v>
       </c>
@@ -8800,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="81" t="s">
         <v>182</v>
       </c>
@@ -8892,7 +8898,7 @@
         <v>50136.600000000013</v>
       </c>
     </row>
-    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="81" t="s">
         <v>185</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="81" t="s">
         <v>185</v>
       </c>
@@ -9094,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="81" t="s">
         <v>185</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="81" t="s">
         <v>185</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="81" t="s">
         <v>185</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="81" t="s">
         <v>185</v>
       </c>
@@ -9498,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="81" t="s">
         <v>185</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="81" t="s">
         <v>185</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="81" t="s">
         <v>185</v>
       </c>
@@ -9801,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="81" t="s">
         <v>185</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="81" t="s">
         <v>185</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="81" t="s">
         <v>185</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="81" t="s">
         <v>185</v>
       </c>
@@ -10205,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" s="81" t="s">
         <v>185</v>
       </c>
@@ -10306,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="81" t="s">
         <v>185</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="81" t="s">
         <v>185</v>
       </c>
@@ -10508,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="81" t="s">
         <v>185</v>
       </c>
@@ -10609,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="81" t="s">
         <v>185</v>
       </c>
@@ -10710,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="81" t="s">
         <v>185</v>
       </c>
@@ -10811,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="81" t="s">
         <v>185</v>
       </c>
@@ -10912,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93" s="81" t="s">
         <v>185</v>
       </c>
@@ -11013,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94" s="81" t="s">
         <v>185</v>
       </c>
@@ -11114,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A95" s="81" t="s">
         <v>185</v>
       </c>
@@ -11215,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96" s="81" t="s">
         <v>185</v>
       </c>
@@ -11316,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="81" t="s">
         <v>185</v>
       </c>
@@ -11417,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="81" t="s">
         <v>185</v>
       </c>
@@ -11518,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="81" t="s">
         <v>185</v>
       </c>
@@ -11619,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="81" t="s">
         <v>185</v>
       </c>
@@ -11720,7 +11726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="81" t="s">
         <v>185</v>
       </c>
@@ -11821,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102" s="81" t="s">
         <v>185</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="81" t="s">
         <v>185</v>
       </c>
@@ -12023,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="81" t="s">
         <v>185</v>
       </c>
@@ -12124,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="81" t="s">
         <v>185</v>
       </c>
@@ -12225,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="81" t="s">
         <v>185</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A107" s="81" t="s">
         <v>185</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="81" t="s">
         <v>185</v>
       </c>
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="81" t="s">
         <v>185</v>
       </c>
@@ -12629,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A110" s="81" t="s">
         <v>185</v>
       </c>
@@ -12730,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111" s="81" t="s">
         <v>185</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112" s="81" t="s">
         <v>185</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="81" t="s">
         <v>185</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114" s="81" t="s">
         <v>185</v>
       </c>
@@ -13134,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115" s="81" t="s">
         <v>185</v>
       </c>
@@ -13235,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A116" s="81" t="s">
         <v>185</v>
       </c>
@@ -13336,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="81" t="s">
         <v>185</v>
       </c>
@@ -13437,7 +13443,7 @@
         <v>8.9507042253521156</v>
       </c>
     </row>
-    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118" s="81" t="s">
         <v>185</v>
       </c>
@@ -13538,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A119" s="81" t="s">
         <v>185</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120" s="81" t="s">
         <v>185</v>
       </c>
@@ -13740,7 +13746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="81" t="s">
         <v>185</v>
       </c>
@@ -13841,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="81" t="s">
         <v>185</v>
       </c>
@@ -13942,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="81" t="s">
         <v>185</v>
       </c>
@@ -14043,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="81" t="s">
         <v>185</v>
       </c>
@@ -14144,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="81" t="s">
         <v>185</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126" s="81" t="s">
         <v>185</v>
       </c>
@@ -14346,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A127" s="81" t="s">
         <v>185</v>
       </c>
@@ -14396,6 +14402,9 @@
         <v>0</v>
       </c>
       <c r="R127" s="16"/>
+      <c r="S127" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T127" s="64">
         <v>-1.23</v>
       </c>
@@ -14447,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="81" t="s">
         <v>185</v>
       </c>
@@ -14547,7 +14556,7 @@
         <v>40650.985915492973</v>
       </c>
     </row>
-    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="81" t="s">
         <v>185</v>
       </c>
@@ -14641,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="81" t="s">
         <v>185</v>
       </c>
@@ -14738,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="81" t="s">
         <v>185</v>
       </c>
@@ -14837,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="81" t="s">
         <v>185</v>
       </c>
@@ -14942,7 +14951,7 @@
         <v>22.689999999999941</v>
       </c>
     </row>
-    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133" s="81" t="s">
         <v>199</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>1964.1</v>
       </c>
     </row>
-    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="81" t="s">
         <v>199</v>
       </c>
@@ -15143,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135" s="81" t="s">
         <v>199</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="81" t="s">
         <v>199</v>
       </c>
@@ -15350,7 +15359,7 @@
         <v>451877.28124999983</v>
       </c>
     </row>
-    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="81" t="s">
         <v>199</v>
       </c>
@@ -15449,7 +15458,7 @@
         <v>219131.10144927545</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="81" t="s">
         <v>199</v>
       </c>
@@ -15548,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="81" t="s">
         <v>199</v>
       </c>
@@ -15647,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="81" t="s">
         <v>199</v>
       </c>
@@ -15746,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141" s="81" t="s">
         <v>199</v>
       </c>
@@ -15845,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="81" t="s">
         <v>199</v>
       </c>
@@ -15944,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="81" t="s">
         <v>199</v>
       </c>
@@ -16043,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="81" t="s">
         <v>199</v>
       </c>
@@ -16142,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145" s="81" t="s">
         <v>199</v>
       </c>
@@ -16241,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="81" t="s">
         <v>199</v>
       </c>
@@ -16340,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="81" t="s">
         <v>199</v>
       </c>
@@ -16439,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="81" t="s">
         <v>199</v>
       </c>
@@ -16538,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A149" s="81" t="s">
         <v>199</v>
       </c>
@@ -16637,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150" s="81" t="s">
         <v>199</v>
       </c>
@@ -16736,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151" s="81" t="s">
         <v>199</v>
       </c>
@@ -16835,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="81" t="s">
         <v>199</v>
       </c>
@@ -16934,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="81" t="s">
         <v>199</v>
       </c>
@@ -17033,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154" s="81" t="s">
         <v>199</v>
       </c>
@@ -17132,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="81" t="s">
         <v>199</v>
       </c>
@@ -17231,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156" s="81" t="s">
         <v>199</v>
       </c>
@@ -17330,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157" s="81" t="s">
         <v>199</v>
       </c>
@@ -17429,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A158" s="81" t="s">
         <v>199</v>
       </c>
@@ -17528,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159" s="81" t="s">
         <v>199</v>
       </c>
@@ -17627,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="81" t="s">
         <v>199</v>
       </c>
@@ -17726,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="81" t="s">
         <v>199</v>
       </c>
@@ -17825,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="81" t="s">
         <v>199</v>
       </c>
@@ -17924,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="81" t="s">
         <v>199</v>
       </c>
@@ -18023,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A164" s="81" t="s">
         <v>199</v>
       </c>
@@ -18122,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165" s="81" t="s">
         <v>199</v>
       </c>
@@ -18221,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="81" t="s">
         <v>199</v>
       </c>
@@ -18320,7 +18329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="81" t="s">
         <v>199</v>
       </c>
@@ -18419,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168" s="81" t="s">
         <v>199</v>
       </c>
@@ -18518,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="81" t="s">
         <v>199</v>
       </c>
@@ -18617,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A170" s="81" t="s">
         <v>199</v>
       </c>
@@ -18716,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="81" t="s">
         <v>199</v>
       </c>
@@ -18815,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172" s="81" t="s">
         <v>199</v>
       </c>
@@ -18914,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A173" s="81" t="s">
         <v>199</v>
       </c>
@@ -19013,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="81" t="s">
         <v>199</v>
       </c>
@@ -19112,7 +19121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="81" t="s">
         <v>199</v>
       </c>
@@ -19211,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="81" t="s">
         <v>199</v>
       </c>
@@ -19310,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="81" t="s">
         <v>199</v>
       </c>
@@ -19409,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178" s="81" t="s">
         <v>199</v>
       </c>
@@ -19508,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A179" s="81" t="s">
         <v>199</v>
       </c>
@@ -19607,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180" s="81" t="s">
         <v>199</v>
       </c>
@@ -19706,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181" s="81" t="s">
         <v>199</v>
       </c>
@@ -19805,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A182" s="81" t="s">
         <v>199</v>
       </c>
@@ -19904,7 +19913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183" s="81" t="s">
         <v>199</v>
       </c>
@@ -20003,7 +20012,7 @@
         <v>16114.171171171167</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184" s="81" t="s">
         <v>199</v>
       </c>
@@ -20102,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A185" s="81" t="s">
         <v>199</v>
       </c>
@@ -20201,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186" s="81" t="s">
         <v>199</v>
       </c>
@@ -20300,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187" s="81" t="s">
         <v>199</v>
       </c>
@@ -20399,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A188" s="81" t="s">
         <v>199</v>
       </c>
@@ -20498,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189" s="81" t="s">
         <v>199</v>
       </c>
@@ -20597,7 +20606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190" s="81" t="s">
         <v>199</v>
       </c>
@@ -20696,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A191" s="81" t="s">
         <v>199</v>
       </c>
@@ -20795,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192" s="81" t="s">
         <v>199</v>
       </c>
@@ -20894,7 +20903,7 @@
         <v>5691.8099999999995</v>
       </c>
     </row>
-    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193" s="81" t="s">
         <v>199</v>
       </c>
@@ -20993,7 +21002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A194" s="81" t="s">
         <v>199</v>
       </c>
@@ -21043,6 +21052,9 @@
         <v>0</v>
       </c>
       <c r="R194" s="16"/>
+      <c r="S194" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T194" s="64">
         <v>-1.23</v>
       </c>
@@ -21055,8 +21067,7 @@
         <v>-2.17</v>
       </c>
       <c r="X194" s="65">
-        <f t="shared" si="18"/>
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="Y194" s="18">
         <v>0</v>
@@ -21068,11 +21079,11 @@
       </c>
       <c r="AB194" s="64">
         <f t="shared" si="20"/>
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="AC194" s="64">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="AD194" s="64">
         <v>0.94</v>
@@ -21092,7 +21103,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="195" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195" s="81" t="s">
         <v>199</v>
       </c>
@@ -21191,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196" s="81" t="s">
         <v>199</v>
       </c>
@@ -21285,7 +21296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A197" s="81" t="s">
         <v>199</v>
       </c>
@@ -21377,7 +21388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198" s="81" t="s">
         <v>199</v>
       </c>
@@ -21469,7 +21480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199" s="81" t="s">
         <v>231</v>
       </c>
@@ -21574,7 +21585,7 @@
         <v>654001.57999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A200" s="81" t="s">
         <v>231</v>
       </c>
@@ -21680,7 +21691,7 @@
       </c>
       <c r="AI200" s="39"/>
     </row>
-    <row r="201" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201" s="81" t="s">
         <v>231</v>
       </c>
@@ -21778,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202" s="81" t="s">
         <v>231</v>
       </c>
@@ -21884,7 +21895,7 @@
         <v>397864.9</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A203" s="81" t="s">
         <v>231</v>
       </c>
@@ -21982,7 +21993,7 @@
         <v>23437.5</v>
       </c>
     </row>
-    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204" s="81" t="s">
         <v>231</v>
       </c>
@@ -22080,7 +22091,7 @@
         <v>65589.739130434813</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205" s="81" t="s">
         <v>231</v>
       </c>
@@ -22178,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A206" s="81" t="s">
         <v>231</v>
       </c>
@@ -22276,7 +22287,7 @@
         <v>152428.45652173911</v>
       </c>
     </row>
-    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207" s="81" t="s">
         <v>231</v>
       </c>
@@ -22374,7 +22385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208" s="81" t="s">
         <v>231</v>
       </c>
@@ -22472,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A209" s="81" t="s">
         <v>231</v>
       </c>
@@ -22570,7 +22581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210" s="81" t="s">
         <v>231</v>
       </c>
@@ -22668,7 +22679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211" s="81" t="s">
         <v>231</v>
       </c>
@@ -22766,7 +22777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A212" s="81" t="s">
         <v>231</v>
       </c>
@@ -22864,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213" s="81" t="s">
         <v>231</v>
       </c>
@@ -22962,7 +22973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214" s="81" t="s">
         <v>231</v>
       </c>
@@ -23060,7 +23071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A215" s="81" t="s">
         <v>231</v>
       </c>
@@ -23158,7 +23169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216" s="81" t="s">
         <v>231</v>
       </c>
@@ -23256,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217" s="81" t="s">
         <v>231</v>
       </c>
@@ -23354,7 +23365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A218" s="81" t="s">
         <v>231</v>
       </c>
@@ -23452,7 +23463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219" s="81" t="s">
         <v>231</v>
       </c>
@@ -23550,7 +23561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220" s="81" t="s">
         <v>231</v>
       </c>
@@ -23648,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A221" s="81" t="s">
         <v>231</v>
       </c>
@@ -23746,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222" s="81" t="s">
         <v>231</v>
       </c>
@@ -23844,7 +23855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223" s="81" t="s">
         <v>231</v>
       </c>
@@ -23942,7 +23953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A224" s="81" t="s">
         <v>231</v>
       </c>
@@ -24040,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225" s="81" t="s">
         <v>231</v>
       </c>
@@ -24138,7 +24149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226" s="81" t="s">
         <v>231</v>
       </c>
@@ -24236,7 +24247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A227" s="81" t="s">
         <v>231</v>
       </c>
@@ -24334,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228" s="81" t="s">
         <v>231</v>
       </c>
@@ -24432,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229" s="81" t="s">
         <v>231</v>
       </c>
@@ -24530,7 +24541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A230" s="81" t="s">
         <v>231</v>
       </c>
@@ -24628,7 +24639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231" s="81" t="s">
         <v>231</v>
       </c>
@@ -24726,7 +24737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232" s="81" t="s">
         <v>231</v>
       </c>
@@ -24824,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A233" s="81" t="s">
         <v>231</v>
       </c>
@@ -24922,7 +24933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234" s="81" t="s">
         <v>231</v>
       </c>
@@ -25020,7 +25031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235" s="81" t="s">
         <v>231</v>
       </c>
@@ -25118,7 +25129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A236" s="81" t="s">
         <v>231</v>
       </c>
@@ -25216,7 +25227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237" s="81" t="s">
         <v>231</v>
       </c>
@@ -25314,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238" s="81" t="s">
         <v>231</v>
       </c>
@@ -25412,7 +25423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A239" s="81" t="s">
         <v>231</v>
       </c>
@@ -25510,7 +25521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240" s="81" t="s">
         <v>231</v>
       </c>
@@ -25608,7 +25619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241" s="81" t="s">
         <v>231</v>
       </c>
@@ -25706,7 +25717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A242" s="81" t="s">
         <v>231</v>
       </c>
@@ -25804,7 +25815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243" s="81" t="s">
         <v>231</v>
       </c>
@@ -25902,7 +25913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244" s="81" t="s">
         <v>231</v>
       </c>
@@ -26000,7 +26011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A245" s="81" t="s">
         <v>231</v>
       </c>
@@ -26098,7 +26109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246" s="81" t="s">
         <v>231</v>
       </c>
@@ -26196,7 +26207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247" s="81" t="s">
         <v>231</v>
       </c>
@@ -26294,7 +26305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A248" s="81" t="s">
         <v>231</v>
       </c>
@@ -26392,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249" s="81" t="s">
         <v>231</v>
       </c>
@@ -26490,7 +26501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250" s="81" t="s">
         <v>231</v>
       </c>
@@ -26588,7 +26599,7 @@
         <v>13156.567567567565</v>
       </c>
     </row>
-    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A251" s="81" t="s">
         <v>231</v>
       </c>
@@ -26686,7 +26697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252" s="81" t="s">
         <v>231</v>
       </c>
@@ -26784,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253" s="81" t="s">
         <v>231</v>
       </c>
@@ -26882,7 +26893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A254" s="81" t="s">
         <v>231</v>
       </c>
@@ -26980,7 +26991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255" s="81" t="s">
         <v>231</v>
       </c>
@@ -27078,7 +27089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256" s="81" t="s">
         <v>231</v>
       </c>
@@ -27176,7 +27187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A257" s="81" t="s">
         <v>231</v>
       </c>
@@ -27274,7 +27285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258" s="81" t="s">
         <v>231</v>
       </c>
@@ -27372,7 +27383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259" s="81" t="s">
         <v>231</v>
       </c>
@@ -27470,7 +27481,7 @@
         <v>281.06</v>
       </c>
     </row>
-    <row r="260" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A260" s="81" t="s">
         <v>231</v>
       </c>
@@ -27568,7 +27579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A261" s="81" t="s">
         <v>231</v>
       </c>
@@ -27618,6 +27629,9 @@
         <v>0</v>
       </c>
       <c r="R261" s="89"/>
+      <c r="S261" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T261" s="64">
         <v>-2.17</v>
       </c>
@@ -27630,8 +27644,7 @@
         <v>-2.63</v>
       </c>
       <c r="X261" s="65">
-        <f t="shared" si="38"/>
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="Y261" s="18">
         <v>0</v>
@@ -27642,11 +27655,11 @@
       </c>
       <c r="AB261" s="64">
         <f t="shared" si="40"/>
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="AC261" s="68">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AD261" s="64">
         <v>0.46</v>
@@ -27666,7 +27679,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="262" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262" s="81" t="s">
         <v>231</v>
       </c>
@@ -27764,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A263" s="81" t="s">
         <v>231</v>
       </c>
@@ -27863,7 +27876,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="264" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264" s="81" t="s">
         <v>231</v>
       </c>
@@ -27958,7 +27971,7 @@
         <v>43612.43</v>
       </c>
     </row>
-    <row r="265" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265" s="81" t="s">
         <v>231</v>
       </c>
@@ -28054,7 +28067,7 @@
         <v>95400</v>
       </c>
     </row>
-    <row r="266" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A266" s="81" t="s">
         <v>237</v>
       </c>
@@ -28157,7 +28170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267" s="81" t="s">
         <v>237</v>
       </c>
@@ -28262,7 +28275,7 @@
       </c>
       <c r="AI267" s="47"/>
     </row>
-    <row r="268" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268" s="81" t="s">
         <v>237</v>
       </c>
@@ -28363,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A269" s="81" t="s">
         <v>237</v>
       </c>
@@ -28467,7 +28480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270" s="81" t="s">
         <v>237</v>
       </c>
@@ -28568,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271" s="81" t="s">
         <v>237</v>
       </c>
@@ -28669,7 +28682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A272" s="81" t="s">
         <v>237</v>
       </c>
@@ -28770,7 +28783,7 @@
         <v>99683.652173913055</v>
       </c>
     </row>
-    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273" s="81" t="s">
         <v>237</v>
       </c>
@@ -28871,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274" s="81" t="s">
         <v>237</v>
       </c>
@@ -28972,7 +28985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A275" s="81" t="s">
         <v>237</v>
       </c>
@@ -29073,7 +29086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276" s="81" t="s">
         <v>237</v>
       </c>
@@ -29174,7 +29187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277" s="81" t="s">
         <v>237</v>
       </c>
@@ -29275,7 +29288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A278" s="81" t="s">
         <v>237</v>
       </c>
@@ -29376,7 +29389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279" s="81" t="s">
         <v>237</v>
       </c>
@@ -29477,7 +29490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280" s="81" t="s">
         <v>237</v>
       </c>
@@ -29578,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A281" s="81" t="s">
         <v>237</v>
       </c>
@@ -29679,7 +29692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282" s="81" t="s">
         <v>237</v>
       </c>
@@ -29780,7 +29793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283" s="81" t="s">
         <v>237</v>
       </c>
@@ -29881,7 +29894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A284" s="81" t="s">
         <v>237</v>
       </c>
@@ -29982,7 +29995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285" s="81" t="s">
         <v>237</v>
       </c>
@@ -30083,7 +30096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286" s="81" t="s">
         <v>237</v>
       </c>
@@ -30184,7 +30197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A287" s="81" t="s">
         <v>237</v>
       </c>
@@ -30285,7 +30298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288" s="81" t="s">
         <v>237</v>
       </c>
@@ -30386,7 +30399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289" s="81" t="s">
         <v>237</v>
       </c>
@@ -30487,7 +30500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A290" s="81" t="s">
         <v>237</v>
       </c>
@@ -30588,7 +30601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291" s="81" t="s">
         <v>237</v>
       </c>
@@ -30689,7 +30702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292" s="81" t="s">
         <v>237</v>
       </c>
@@ -30790,7 +30803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A293" s="81" t="s">
         <v>237</v>
       </c>
@@ -30891,7 +30904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294" s="81" t="s">
         <v>237</v>
       </c>
@@ -30992,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295" s="81" t="s">
         <v>237</v>
       </c>
@@ -31093,7 +31106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A296" s="81" t="s">
         <v>237</v>
       </c>
@@ -31194,7 +31207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297" s="81" t="s">
         <v>237</v>
       </c>
@@ -31295,7 +31308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298" s="81" t="s">
         <v>237</v>
       </c>
@@ -31396,7 +31409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A299" s="81" t="s">
         <v>237</v>
       </c>
@@ -31497,7 +31510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300" s="81" t="s">
         <v>237</v>
       </c>
@@ -31598,7 +31611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301" s="81" t="s">
         <v>237</v>
       </c>
@@ -31699,7 +31712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A302" s="81" t="s">
         <v>237</v>
       </c>
@@ -31800,7 +31813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303" s="81" t="s">
         <v>237</v>
       </c>
@@ -31901,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304" s="81" t="s">
         <v>237</v>
       </c>
@@ -32002,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A305" s="81" t="s">
         <v>237</v>
       </c>
@@ -32103,7 +32116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306" s="81" t="s">
         <v>237</v>
       </c>
@@ -32204,7 +32217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307" s="81" t="s">
         <v>237</v>
       </c>
@@ -32305,7 +32318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A308" s="81" t="s">
         <v>237</v>
       </c>
@@ -32406,7 +32419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309" s="81" t="s">
         <v>237</v>
       </c>
@@ -32507,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310" s="81" t="s">
         <v>237</v>
       </c>
@@ -32608,7 +32621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A311" s="81" t="s">
         <v>237</v>
       </c>
@@ -32709,7 +32722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312" s="81" t="s">
         <v>237</v>
       </c>
@@ -32810,7 +32823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313" s="81" t="s">
         <v>237</v>
       </c>
@@ -32911,7 +32924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A314" s="81" t="s">
         <v>237</v>
       </c>
@@ -33012,7 +33025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315" s="81" t="s">
         <v>237</v>
       </c>
@@ -33113,7 +33126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316" s="81" t="s">
         <v>237</v>
       </c>
@@ -33214,7 +33227,7 @@
         <v>5674.1891891891892</v>
       </c>
     </row>
-    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A317" s="81" t="s">
         <v>237</v>
       </c>
@@ -33315,7 +33328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318" s="81" t="s">
         <v>237</v>
       </c>
@@ -33416,7 +33429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319" s="81" t="s">
         <v>237</v>
       </c>
@@ -33517,7 +33530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A320" s="81" t="s">
         <v>237</v>
       </c>
@@ -33618,7 +33631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321" s="81" t="s">
         <v>237</v>
       </c>
@@ -33719,7 +33732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322" s="81" t="s">
         <v>237</v>
       </c>
@@ -33820,7 +33833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A323" s="81" t="s">
         <v>237</v>
       </c>
@@ -33921,7 +33934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324" s="81" t="s">
         <v>237</v>
       </c>
@@ -34022,7 +34035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325" s="81" t="s">
         <v>237</v>
       </c>
@@ -34123,7 +34136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A326" s="81" t="s">
         <v>237</v>
       </c>
@@ -34224,7 +34237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A327" s="81" t="s">
         <v>237</v>
       </c>
@@ -34274,6 +34287,9 @@
         <v>0</v>
       </c>
       <c r="R327" s="91"/>
+      <c r="S327" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T327" s="69">
         <v>-2.63</v>
       </c>
@@ -34286,8 +34302,7 @@
         <v>-6.25</v>
       </c>
       <c r="X327" s="65">
-        <f t="shared" si="46"/>
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="Y327" s="23">
         <v>0</v>
@@ -34301,11 +34316,11 @@
       </c>
       <c r="AB327" s="64">
         <f t="shared" si="51"/>
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="AC327" s="72">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AD327" s="64">
         <v>3.62</v>
@@ -34325,7 +34340,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="328" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328" s="81" t="s">
         <v>237</v>
       </c>
@@ -34426,7 +34441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A329" s="81" t="s">
         <v>237</v>
       </c>
@@ -34530,7 +34545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330" s="81" t="s">
         <v>237</v>
       </c>
@@ -34635,7 +34650,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="331" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331" s="81" t="s">
         <v>237</v>
       </c>
@@ -34737,7 +34752,7 @@
         <v>67260.759999999995</v>
       </c>
     </row>
-    <row r="332" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A332" s="81" t="s">
         <v>242</v>
       </c>
@@ -34827,7 +34842,7 @@
         <v>1980003.2549999999</v>
       </c>
     </row>
-    <row r="333" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333" s="81" t="s">
         <v>242</v>
       </c>
@@ -34918,7 +34933,7 @@
         <v>856319.46538461547</v>
       </c>
     </row>
-    <row r="334" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334" s="81" t="s">
         <v>242</v>
       </c>
@@ -35009,7 +35024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A335" s="81" t="s">
         <v>242</v>
       </c>
@@ -35100,7 +35115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336" s="81" t="s">
         <v>242</v>
       </c>
@@ -35191,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337" s="81" t="s">
         <v>242</v>
       </c>
@@ -35282,7 +35297,7 @@
         <v>14646.804347826088</v>
       </c>
     </row>
-    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A338" s="81" t="s">
         <v>242</v>
       </c>
@@ -35373,7 +35388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339" s="81" t="s">
         <v>242</v>
       </c>
@@ -35464,7 +35479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340" s="81" t="s">
         <v>242</v>
       </c>
@@ -35555,7 +35570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A341" s="81" t="s">
         <v>242</v>
       </c>
@@ -35646,7 +35661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342" s="81" t="s">
         <v>242</v>
       </c>
@@ -35737,7 +35752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343" s="81" t="s">
         <v>242</v>
       </c>
@@ -35828,7 +35843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A344" s="81" t="s">
         <v>242</v>
       </c>
@@ -35919,7 +35934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345" s="81" t="s">
         <v>242</v>
       </c>
@@ -36010,7 +36025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346" s="81" t="s">
         <v>242</v>
       </c>
@@ -36101,7 +36116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A347" s="81" t="s">
         <v>242</v>
       </c>
@@ -36192,7 +36207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348" s="81" t="s">
         <v>242</v>
       </c>
@@ -36283,7 +36298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349" s="81" t="s">
         <v>242</v>
       </c>
@@ -36374,7 +36389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A350" s="81" t="s">
         <v>242</v>
       </c>
@@ -36465,7 +36480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351" s="81" t="s">
         <v>242</v>
       </c>
@@ -36556,7 +36571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352" s="81" t="s">
         <v>242</v>
       </c>
@@ -36647,7 +36662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A353" s="81" t="s">
         <v>242</v>
       </c>
@@ -36738,7 +36753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354" s="81" t="s">
         <v>242</v>
       </c>
@@ -36829,7 +36844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355" s="81" t="s">
         <v>242</v>
       </c>
@@ -36920,7 +36935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A356" s="81" t="s">
         <v>242</v>
       </c>
@@ -37011,7 +37026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357" s="81" t="s">
         <v>242</v>
       </c>
@@ -37102,7 +37117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358" s="81" t="s">
         <v>242</v>
       </c>
@@ -37193,7 +37208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A359" s="81" t="s">
         <v>242</v>
       </c>
@@ -37284,7 +37299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360" s="81" t="s">
         <v>242</v>
       </c>
@@ -37375,7 +37390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361" s="81" t="s">
         <v>242</v>
       </c>
@@ -37466,7 +37481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A362" s="81" t="s">
         <v>242</v>
       </c>
@@ -37557,7 +37572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363" s="81" t="s">
         <v>242</v>
       </c>
@@ -37648,7 +37663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364" s="81" t="s">
         <v>242</v>
       </c>
@@ -37739,7 +37754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A365" s="81" t="s">
         <v>242</v>
       </c>
@@ -37830,7 +37845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366" s="81" t="s">
         <v>242</v>
       </c>
@@ -37921,7 +37936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367" s="81" t="s">
         <v>242</v>
       </c>
@@ -38012,7 +38027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A368" s="81" t="s">
         <v>242</v>
       </c>
@@ -38103,7 +38118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369" s="81" t="s">
         <v>242</v>
       </c>
@@ -38194,7 +38209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370" s="81" t="s">
         <v>242</v>
       </c>
@@ -38285,7 +38300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A371" s="81" t="s">
         <v>242</v>
       </c>
@@ -38376,7 +38391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372" s="81" t="s">
         <v>242</v>
       </c>
@@ -38467,7 +38482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373" s="81" t="s">
         <v>242</v>
       </c>
@@ -38558,7 +38573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A374" s="81" t="s">
         <v>242</v>
       </c>
@@ -38649,7 +38664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375" s="81" t="s">
         <v>242</v>
       </c>
@@ -38740,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376" s="81" t="s">
         <v>242</v>
       </c>
@@ -38831,7 +38846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A377" s="81" t="s">
         <v>242</v>
       </c>
@@ -38922,7 +38937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378" s="81" t="s">
         <v>242</v>
       </c>
@@ -39013,7 +39028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379" s="81" t="s">
         <v>242</v>
       </c>
@@ -39104,7 +39119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A380" s="81" t="s">
         <v>242</v>
       </c>
@@ -39195,7 +39210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381" s="81" t="s">
         <v>242</v>
       </c>
@@ -39286,7 +39301,7 @@
         <v>691.94594594594594</v>
       </c>
     </row>
-    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382" s="81" t="s">
         <v>242</v>
       </c>
@@ -39377,7 +39392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A383" s="81" t="s">
         <v>242</v>
       </c>
@@ -39468,7 +39483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384" s="81" t="s">
         <v>242</v>
       </c>
@@ -39559,7 +39574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385" s="81" t="s">
         <v>242</v>
       </c>
@@ -39650,7 +39665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A386" s="81" t="s">
         <v>242</v>
       </c>
@@ -39741,7 +39756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387" s="81" t="s">
         <v>242</v>
       </c>
@@ -39832,7 +39847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388" s="81" t="s">
         <v>242</v>
       </c>
@@ -39923,7 +39938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A389" s="81" t="s">
         <v>242</v>
       </c>
@@ -40014,7 +40029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390" s="81" t="s">
         <v>242</v>
       </c>
@@ -40105,7 +40120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391" s="81" t="s">
         <v>242</v>
       </c>
@@ -40196,7 +40211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A392" s="81" t="s">
         <v>242</v>
       </c>
@@ -40246,6 +40261,9 @@
         <v>0</v>
       </c>
       <c r="R392" s="16"/>
+      <c r="S392" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T392" s="64">
         <v>-6.25</v>
       </c>
@@ -40258,8 +40276,7 @@
         <v>-9.42</v>
       </c>
       <c r="X392" s="65">
-        <f t="shared" si="53"/>
-        <v>3.1699999999999995</v>
+        <v>0</v>
       </c>
       <c r="Y392" s="18">
         <v>0</v>
@@ -40271,7 +40288,7 @@
       </c>
       <c r="AB392" s="64">
         <f t="shared" si="57"/>
-        <v>3.1699999999999995</v>
+        <v>0</v>
       </c>
       <c r="AD392" s="64">
         <v>3.1699999999999995</v>
@@ -40287,7 +40304,7 @@
         <v>3.1699999999999995</v>
       </c>
     </row>
-    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393" s="81" t="s">
         <v>242</v>
       </c>
@@ -40378,7 +40395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394" s="81" t="s">
         <v>243</v>
       </c>
@@ -40477,7 +40494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A395" s="81" t="s">
         <v>243</v>
       </c>
@@ -40576,7 +40593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396" s="81" t="s">
         <v>243</v>
       </c>
@@ -40675,7 +40692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397" s="81" t="s">
         <v>243</v>
       </c>
@@ -40774,7 +40791,7 @@
         <v>165.99275362318841</v>
       </c>
     </row>
-    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A398" s="81" t="s">
         <v>243</v>
       </c>
@@ -40873,7 +40890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399" s="81" t="s">
         <v>243</v>
       </c>
@@ -40972,7 +40989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400" s="81" t="s">
         <v>243</v>
       </c>
@@ -41071,7 +41088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A401" s="81" t="s">
         <v>243</v>
       </c>
@@ -41170,7 +41187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402" s="81" t="s">
         <v>243</v>
       </c>
@@ -41269,7 +41286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403" s="81" t="s">
         <v>243</v>
       </c>
@@ -41368,7 +41385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A404" s="81" t="s">
         <v>243</v>
       </c>
@@ -41467,7 +41484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405" s="81" t="s">
         <v>243</v>
       </c>
@@ -41566,7 +41583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406" s="81" t="s">
         <v>243</v>
       </c>
@@ -41665,7 +41682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A407" s="81" t="s">
         <v>243</v>
       </c>
@@ -41764,7 +41781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408" s="81" t="s">
         <v>243</v>
       </c>
@@ -41863,7 +41880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409" s="81" t="s">
         <v>243</v>
       </c>
@@ -41962,7 +41979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A410" s="81" t="s">
         <v>243</v>
       </c>
@@ -42061,7 +42078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411" s="81" t="s">
         <v>243</v>
       </c>
@@ -42160,7 +42177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412" s="81" t="s">
         <v>243</v>
       </c>
@@ -42259,7 +42276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A413" s="81" t="s">
         <v>243</v>
       </c>
@@ -42358,7 +42375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414" s="81" t="s">
         <v>243</v>
       </c>
@@ -42457,7 +42474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415" s="81" t="s">
         <v>243</v>
       </c>
@@ -42556,7 +42573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A416" s="81" t="s">
         <v>243</v>
       </c>
@@ -42655,7 +42672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417" s="81" t="s">
         <v>243</v>
       </c>
@@ -42754,7 +42771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418" s="81" t="s">
         <v>243</v>
       </c>
@@ -42853,7 +42870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A419" s="81" t="s">
         <v>243</v>
       </c>
@@ -42952,7 +42969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420" s="81" t="s">
         <v>243</v>
       </c>
@@ -43051,7 +43068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421" s="81" t="s">
         <v>243</v>
       </c>
@@ -43150,7 +43167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A422" s="81" t="s">
         <v>243</v>
       </c>
@@ -43249,7 +43266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423" s="81" t="s">
         <v>243</v>
       </c>
@@ -43348,7 +43365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424" s="81" t="s">
         <v>243</v>
       </c>
@@ -43447,7 +43464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A425" s="81" t="s">
         <v>243</v>
       </c>
@@ -43546,7 +43563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426" s="81" t="s">
         <v>243</v>
       </c>
@@ -43645,7 +43662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427" s="81" t="s">
         <v>243</v>
       </c>
@@ -43744,7 +43761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A428" s="81" t="s">
         <v>243</v>
       </c>
@@ -43843,7 +43860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429" s="81" t="s">
         <v>243</v>
       </c>
@@ -43942,7 +43959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430" s="81" t="s">
         <v>243</v>
       </c>
@@ -44041,7 +44058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A431" s="81" t="s">
         <v>243</v>
       </c>
@@ -44140,7 +44157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432" s="81" t="s">
         <v>243</v>
       </c>
@@ -44239,7 +44256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433" s="81" t="s">
         <v>243</v>
       </c>
@@ -44338,7 +44355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A434" s="81" t="s">
         <v>243</v>
       </c>
@@ -44437,7 +44454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435" s="81" t="s">
         <v>243</v>
       </c>
@@ -44536,7 +44553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436" s="81" t="s">
         <v>243</v>
       </c>
@@ -44635,7 +44652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A437" s="81" t="s">
         <v>243</v>
       </c>
@@ -44734,7 +44751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438" s="81" t="s">
         <v>243</v>
       </c>
@@ -44833,7 +44850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439" s="81" t="s">
         <v>243</v>
       </c>
@@ -44932,7 +44949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A440" s="81" t="s">
         <v>243</v>
       </c>
@@ -45031,7 +45048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441" s="81" t="s">
         <v>243</v>
       </c>
@@ -45130,7 +45147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442" s="81" t="s">
         <v>243</v>
       </c>
@@ -45231,7 +45248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A443" s="81" t="s">
         <v>243</v>
       </c>
@@ -45330,7 +45347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444" s="81" t="s">
         <v>243</v>
       </c>
@@ -45429,7 +45446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445" s="81" t="s">
         <v>243</v>
       </c>
@@ -45528,7 +45545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A446" s="81" t="s">
         <v>243</v>
       </c>
@@ -45627,7 +45644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447" s="81" t="s">
         <v>243</v>
       </c>
@@ -45726,7 +45743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448" s="81" t="s">
         <v>243</v>
       </c>
@@ -45825,7 +45842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A449" s="81" t="s">
         <v>243</v>
       </c>
@@ -45924,7 +45941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450" s="81" t="s">
         <v>243</v>
       </c>
@@ -46023,7 +46040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451" s="81" t="s">
         <v>243</v>
       </c>
@@ -46122,7 +46139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A452" s="81" t="s">
         <v>243</v>
       </c>
@@ -46172,6 +46189,9 @@
         <v>0</v>
       </c>
       <c r="R452" s="16"/>
+      <c r="S452" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T452" s="64">
         <v>-9.42</v>
       </c>
@@ -46184,8 +46204,7 @@
         <v>-9.57</v>
       </c>
       <c r="X452" s="65">
-        <f t="shared" si="61"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="Y452" s="18">
         <v>0</v>
@@ -46197,11 +46216,11 @@
       </c>
       <c r="AB452" s="64">
         <f t="shared" si="64"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AC452" s="72">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="AD452" s="64">
         <v>0.15</v>
@@ -46221,7 +46240,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="453" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453" s="81" t="s">
         <v>243</v>
       </c>
@@ -46420,7 +46439,7 @@
       </c>
       <c r="AI454" s="82"/>
     </row>
-    <row r="455" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A455" s="81" t="s">
         <v>253</v>
       </c>
@@ -46516,7 +46535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456" s="81" t="s">
         <v>253</v>
       </c>
@@ -46610,7 +46629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457" s="81" t="s">
         <v>253</v>
       </c>
@@ -46704,7 +46723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A458" s="81" t="s">
         <v>253</v>
       </c>
@@ -46798,7 +46817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459" s="81" t="s">
         <v>253</v>
       </c>
@@ -46892,7 +46911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460" s="81" t="s">
         <v>253</v>
       </c>
@@ -46986,7 +47005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A461" s="81" t="s">
         <v>253</v>
       </c>
@@ -47080,7 +47099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462" s="81" t="s">
         <v>253</v>
       </c>
@@ -47174,7 +47193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463" s="81" t="s">
         <v>253</v>
       </c>
@@ -47268,7 +47287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" hidden="1" x14ac:dyDescent="0.15">
       <c r="A464" s="81" t="s">
         <v>253</v>
       </c>
@@ -47362,7 +47381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465" s="81" t="s">
         <v>253</v>
       </c>
@@ -47456,7 +47475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466" s="81" t="s">
         <v>253</v>
       </c>
@@ -47550,7 +47569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A467" s="81" t="s">
         <v>253</v>
       </c>
@@ -47644,7 +47663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468" s="81" t="s">
         <v>253</v>
       </c>
@@ -47738,7 +47757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469" s="81" t="s">
         <v>253</v>
       </c>
@@ -47832,7 +47851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A470" s="81" t="s">
         <v>253</v>
       </c>
@@ -47926,7 +47945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471" s="81" t="s">
         <v>253</v>
       </c>
@@ -48020,7 +48039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472" s="81" t="s">
         <v>253</v>
       </c>
@@ -48114,7 +48133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A473" s="81" t="s">
         <v>253</v>
       </c>
@@ -48208,7 +48227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474" s="81" t="s">
         <v>253</v>
       </c>
@@ -48302,7 +48321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475" s="81" t="s">
         <v>253</v>
       </c>
@@ -48396,7 +48415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A476" s="81" t="s">
         <v>253</v>
       </c>
@@ -48490,7 +48509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477" s="81" t="s">
         <v>253</v>
       </c>
@@ -48584,7 +48603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478" s="81" t="s">
         <v>253</v>
       </c>
@@ -48678,7 +48697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A479" s="81" t="s">
         <v>253</v>
       </c>
@@ -48772,7 +48791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480" s="81" t="s">
         <v>253</v>
       </c>
@@ -48866,7 +48885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481" s="81" t="s">
         <v>253</v>
       </c>
@@ -48960,7 +48979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A482" s="81" t="s">
         <v>253</v>
       </c>
@@ -49054,7 +49073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483" s="81" t="s">
         <v>253</v>
       </c>
@@ -49148,7 +49167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484" s="81" t="s">
         <v>253</v>
       </c>
@@ -49242,7 +49261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A485" s="81" t="s">
         <v>253</v>
       </c>
@@ -49336,7 +49355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486" s="81" t="s">
         <v>253</v>
       </c>
@@ -49430,7 +49449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487" s="81" t="s">
         <v>253</v>
       </c>
@@ -49524,7 +49543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A488" s="81" t="s">
         <v>253</v>
       </c>
@@ -49618,7 +49637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489" s="81" t="s">
         <v>253</v>
       </c>
@@ -49712,7 +49731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490" s="81" t="s">
         <v>253</v>
       </c>
@@ -49806,7 +49825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A491" s="81" t="s">
         <v>253</v>
       </c>
@@ -49900,7 +49919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492" s="81" t="s">
         <v>253</v>
       </c>
@@ -49994,7 +50013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493" s="81" t="s">
         <v>253</v>
       </c>
@@ -50088,7 +50107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A494" s="81" t="s">
         <v>253</v>
       </c>
@@ -50182,7 +50201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495" s="81" t="s">
         <v>253</v>
       </c>
@@ -50276,7 +50295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496" s="81" t="s">
         <v>253</v>
       </c>
@@ -50370,7 +50389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A497" s="81" t="s">
         <v>253</v>
       </c>
@@ -50464,7 +50483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498" s="81" t="s">
         <v>253</v>
       </c>
@@ -50558,7 +50577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499" s="81" t="s">
         <v>253</v>
       </c>
@@ -50652,7 +50671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A500" s="81" t="s">
         <v>253</v>
       </c>
@@ -50746,7 +50765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501" s="81" t="s">
         <v>253</v>
       </c>
@@ -50840,7 +50859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502" s="81" t="s">
         <v>253</v>
       </c>
@@ -50934,7 +50953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A503" s="81" t="s">
         <v>253</v>
       </c>
@@ -51028,7 +51047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504" s="81" t="s">
         <v>253</v>
       </c>
@@ -51122,7 +51141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505" s="81" t="s">
         <v>253</v>
       </c>
@@ -51216,7 +51235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A506" s="81" t="s">
         <v>253</v>
       </c>
@@ -51310,7 +51329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507" s="81" t="s">
         <v>253</v>
       </c>
@@ -51404,7 +51423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508" s="81" t="s">
         <v>253</v>
       </c>
@@ -51498,7 +51517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A509" s="81" t="s">
         <v>253</v>
       </c>
@@ -51592,7 +51611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510" s="81" t="s">
         <v>253</v>
       </c>
@@ -51686,7 +51705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511" s="81" t="s">
         <v>253</v>
       </c>
@@ -51780,7 +51799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A512" s="81" t="s">
         <v>253</v>
       </c>
@@ -51874,7 +51893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A513" s="81" t="s">
         <v>253</v>
       </c>
@@ -51924,6 +51943,9 @@
         <v>0</v>
       </c>
       <c r="R513" s="16"/>
+      <c r="S513" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T513" s="86">
         <v>-9.57</v>
       </c>
@@ -51968,7 +51990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514" s="81" t="s">
         <v>253</v>
       </c>
@@ -52059,7 +52081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A515" s="81" t="s">
         <v>253</v>
       </c>
@@ -52153,7 +52175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516" s="81" t="s">
         <v>236</v>
       </c>
@@ -52246,7 +52268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517" s="81" t="s">
         <v>236</v>
       </c>
@@ -52339,7 +52361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A518" s="81" t="s">
         <v>236</v>
       </c>
@@ -52432,7 +52454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519" s="81" t="s">
         <v>236</v>
       </c>
@@ -52525,7 +52547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520" s="81" t="s">
         <v>236</v>
       </c>
@@ -52618,7 +52640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A521" s="81" t="s">
         <v>236</v>
       </c>
@@ -52711,7 +52733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522" s="81" t="s">
         <v>236</v>
       </c>
@@ -52804,7 +52826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523" s="81" t="s">
         <v>236</v>
       </c>
@@ -52897,7 +52919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A524" s="81" t="s">
         <v>236</v>
       </c>
@@ -52990,7 +53012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525" s="81" t="s">
         <v>236</v>
       </c>
@@ -53083,7 +53105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526" s="81" t="s">
         <v>236</v>
       </c>
@@ -53176,7 +53198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A527" s="81" t="s">
         <v>236</v>
       </c>
@@ -53269,7 +53291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528" s="81" t="s">
         <v>236</v>
       </c>
@@ -53362,7 +53384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529" s="81" t="s">
         <v>236</v>
       </c>
@@ -53455,7 +53477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A530" s="81" t="s">
         <v>236</v>
       </c>
@@ -53548,7 +53570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531" s="81" t="s">
         <v>236</v>
       </c>
@@ -53641,7 +53663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532" s="81" t="s">
         <v>236</v>
       </c>
@@ -53734,7 +53756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A533" s="81" t="s">
         <v>236</v>
       </c>
@@ -53827,7 +53849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534" s="81" t="s">
         <v>236</v>
       </c>
@@ -53920,7 +53942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535" s="81" t="s">
         <v>236</v>
       </c>
@@ -54013,7 +54035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A536" s="81" t="s">
         <v>236</v>
       </c>
@@ -54106,7 +54128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537" s="81" t="s">
         <v>236</v>
       </c>
@@ -54199,7 +54221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538" s="81" t="s">
         <v>236</v>
       </c>
@@ -54292,7 +54314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A539" s="81" t="s">
         <v>236</v>
       </c>
@@ -54385,7 +54407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540" s="81" t="s">
         <v>236</v>
       </c>
@@ -54478,7 +54500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541" s="81" t="s">
         <v>236</v>
       </c>
@@ -54571,7 +54593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A542" s="81" t="s">
         <v>236</v>
       </c>
@@ -54664,7 +54686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543" s="81" t="s">
         <v>236</v>
       </c>
@@ -54757,7 +54779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544" s="81" t="s">
         <v>236</v>
       </c>
@@ -54850,7 +54872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A545" s="81" t="s">
         <v>236</v>
       </c>
@@ -54943,7 +54965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546" s="81" t="s">
         <v>236</v>
       </c>
@@ -55036,7 +55058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547" s="81" t="s">
         <v>236</v>
       </c>
@@ -55129,7 +55151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A548" s="81" t="s">
         <v>236</v>
       </c>
@@ -55222,7 +55244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549" s="81" t="s">
         <v>236</v>
       </c>
@@ -55315,7 +55337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550" s="81" t="s">
         <v>236</v>
       </c>
@@ -55408,7 +55430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A551" s="81" t="s">
         <v>236</v>
       </c>
@@ -55501,7 +55523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552" s="81" t="s">
         <v>236</v>
       </c>
@@ -55594,7 +55616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553" s="81" t="s">
         <v>236</v>
       </c>
@@ -55687,7 +55709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A554" s="81" t="s">
         <v>236</v>
       </c>
@@ -55780,7 +55802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555" s="81" t="s">
         <v>236</v>
       </c>
@@ -55873,7 +55895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556" s="81" t="s">
         <v>236</v>
       </c>
@@ -55966,7 +55988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A557" s="81" t="s">
         <v>236</v>
       </c>
@@ -56059,7 +56081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558" s="81" t="s">
         <v>236</v>
       </c>
@@ -56152,7 +56174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559" s="81" t="s">
         <v>236</v>
       </c>
@@ -56245,7 +56267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A560" s="81" t="s">
         <v>236</v>
       </c>
@@ -56338,7 +56360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561" s="81" t="s">
         <v>236</v>
       </c>
@@ -56431,7 +56453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562" s="81" t="s">
         <v>236</v>
       </c>
@@ -56523,7 +56545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A563" s="81" t="s">
         <v>236</v>
       </c>
@@ -56616,7 +56638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564" s="81" t="s">
         <v>236</v>
       </c>
@@ -56709,7 +56731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565" s="81" t="s">
         <v>236</v>
       </c>
@@ -56802,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A566" s="81" t="s">
         <v>236</v>
       </c>
@@ -56895,7 +56917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567" s="81" t="s">
         <v>236</v>
       </c>
@@ -56988,7 +57010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568" s="81" t="s">
         <v>236</v>
       </c>
@@ -57081,7 +57103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A569" s="81" t="s">
         <v>236</v>
       </c>
@@ -57174,7 +57196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570" s="81" t="s">
         <v>236</v>
       </c>
@@ -57267,7 +57289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571" s="81" t="s">
         <v>236</v>
       </c>
@@ -57360,7 +57382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A572" s="81" t="s">
         <v>236</v>
       </c>
@@ -57453,7 +57475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A573" s="81" t="s">
         <v>236</v>
       </c>
@@ -57503,7 +57525,9 @@
         <v>0</v>
       </c>
       <c r="R573" s="16"/>
-      <c r="S573" s="16"/>
+      <c r="S573" s="81" t="s">
+        <v>260</v>
+      </c>
       <c r="T573" s="86">
         <v>-9.57</v>
       </c>
@@ -57514,8 +57538,7 @@
         <v>0</v>
       </c>
       <c r="W573" s="87">
-        <f t="shared" si="74"/>
-        <v>-9.57</v>
+        <v>0</v>
       </c>
       <c r="X573" s="87">
         <f t="shared" si="73"/>
@@ -57546,7 +57569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574" s="81" t="s">
         <v>236</v>
       </c>
@@ -57639,7 +57662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:34" hidden="1" x14ac:dyDescent="0.15">
       <c r="A575" s="81" t="s">
         <v>236</v>
       </c>
@@ -57734,14 +57757,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK575">
-    <filterColumn colId="12">
+    <filterColumn colId="5">
       <filters>
-        <filter val="北京陌陌科技有限公司"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="CPC"/>
+        <filter val="北京多彩互动广告有限公司-上海申友广告有限公司"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -57761,37 +57779,37 @@
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="5" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="20"/>
-    <col min="9" max="9" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.125" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1"/>
+    <col min="4" max="5" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="20"/>
+    <col min="9" max="9" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="8" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.90625" style="2"/>
-    <col min="23" max="23" width="8.90625" style="1"/>
-    <col min="24" max="25" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.90625" style="1"/>
-    <col min="27" max="27" width="14.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.90625" style="1"/>
+    <col min="20" max="20" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="2"/>
+    <col min="23" max="23" width="8.875" style="1"/>
+    <col min="24" max="25" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.875" style="1"/>
+    <col min="27" max="27" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="31" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -57867,7 +57885,7 @@
       </c>
       <c r="Y1" s="30">
         <f>SUM(R:R)</f>
-        <v>39710418.117392719</v>
+        <v>39710408.547392718</v>
       </c>
       <c r="Z1" s="30">
         <f>Y1-客户表!AJ1</f>
@@ -57878,7 +57896,7 @@
         <v>2084718.2365725215</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -57929,24 +57947,24 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G2,客户表!K:K,媒体表!B2,客户表!O:O,媒体表!H2)</f>
-        <v>2858041.8912917334</v>
+        <v>2858040.6612917334</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="6">
         <f>IF(OR(P2="返现",P2="折现"),(R2-I2+L2)/1.06,IF(P2="返货",(R2-I2+L2-M2)/1.06,(R2-I2)/1.06))</f>
-        <v>444172.49164284981</v>
+        <v>444171.33126549132</v>
       </c>
       <c r="U2" s="6">
         <f>T2-S2/1.06</f>
-        <v>444172.49164284981</v>
+        <v>444171.33126549132</v>
       </c>
       <c r="V2" s="7">
         <f>IFERROR(IF(AND(U2&lt;0,R2&lt;0),-U2/(R2/1.06),U2/(R2/1.06)),IF(U2&lt;0,-1,"-"))</f>
-        <v>0.16473615819837603</v>
+        <v>0.16473579873024832</v>
       </c>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -58013,7 +58031,7 @@
       </c>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -58082,7 +58100,7 @@
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -58151,7 +58169,7 @@
       </c>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -58220,7 +58238,7 @@
       </c>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -58289,7 +58307,7 @@
       </c>
       <c r="W7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -58357,7 +58375,7 @@
       </c>
       <c r="W8" s="6"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -58426,7 +58444,7 @@
       </c>
       <c r="W9" s="6"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -58481,24 +58499,24 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G10,客户表!K:K,媒体表!B10,客户表!O:O,媒体表!H10)</f>
-        <v>1201132.0535731316</v>
+        <v>1201131.1135731316</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6">
         <f t="shared" si="5"/>
-        <v>192475.73833138307</v>
+        <v>192474.85153893026</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="3"/>
-        <v>192475.73833138307</v>
+        <v>192474.85153893026</v>
       </c>
       <c r="V10" s="7">
         <f t="shared" si="4"/>
-        <v>0.16985999334905263</v>
+        <v>0.16985934368508387</v>
       </c>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -58568,7 +58586,7 @@
       </c>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -58637,7 +58655,7 @@
       </c>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -58706,7 +58724,7 @@
       </c>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -58760,24 +58778,24 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G14,客户表!K:K,媒体表!B14,客户表!O:O,媒体表!H14)</f>
-        <v>1270619.4287440381</v>
+        <v>1270618.9687440381</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="6">
         <f t="shared" si="5"/>
-        <v>314794.0500527313</v>
+        <v>314793.6160904672</v>
       </c>
       <c r="U14" s="6">
         <f t="shared" si="3"/>
-        <v>314794.0500527313</v>
+        <v>314793.6160904672</v>
       </c>
       <c r="V14" s="7">
         <f t="shared" si="4"/>
-        <v>0.26261340375200121</v>
+        <v>0.2626131367972</v>
       </c>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -58849,7 +58867,7 @@
       </c>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -58920,7 +58938,7 @@
       </c>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -58989,7 +59007,7 @@
       </c>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -59041,24 +59059,24 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G18,客户表!K:K,媒体表!B18,客户表!O:O,媒体表!H18)</f>
-        <v>3815623.9791891892</v>
+        <v>3815620.359189189</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="6">
         <f t="shared" si="5"/>
-        <v>1463465.7272108393</v>
+        <v>1463462.3121164995</v>
       </c>
       <c r="U18" s="6">
         <f t="shared" si="3"/>
-        <v>1463465.7272108393</v>
+        <v>1463462.3121164995</v>
       </c>
       <c r="V18" s="7">
         <f t="shared" si="4"/>
-        <v>0.4065583189811936</v>
+        <v>0.40655775596425714</v>
       </c>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -59125,7 +59143,7 @@
       </c>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -59194,7 +59212,7 @@
       </c>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -59258,7 +59276,7 @@
       </c>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="49" t="s">
         <v>10</v>
       </c>
@@ -59308,24 +59326,24 @@
       <c r="Q22" s="49"/>
       <c r="R22" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G22,客户表!K:K,媒体表!B22,客户表!O:O,媒体表!H22)</f>
-        <v>3093913.675945946</v>
+        <v>3093910.5059459461</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="6">
         <f t="shared" si="5"/>
-        <v>629099.90773525764</v>
+        <v>629096.91716921993</v>
       </c>
       <c r="U22" s="6">
         <f t="shared" si="3"/>
-        <v>629099.90773525764</v>
+        <v>629096.91716921993</v>
       </c>
       <c r="V22" s="7">
         <f t="shared" si="4"/>
-        <v>0.21553474726326644</v>
+        <v>0.21553394350541816</v>
       </c>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
         <v>10</v>
       </c>
@@ -59439,20 +59457,20 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G24,客户表!K:K,媒体表!B24,客户表!O:O,媒体表!H24)</f>
-        <v>4.9698198198198194</v>
+        <v>4.819819819819819</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="6">
         <f t="shared" si="5"/>
-        <v>0.90431609826284898</v>
+        <v>0.76280666430058441</v>
       </c>
       <c r="U24" s="6">
         <f t="shared" si="3"/>
-        <v>0.90431609826284898</v>
+        <v>0.76280666430058441</v>
       </c>
       <c r="V24" s="7">
         <f t="shared" si="4"/>
-        <v>0.19287923886813529</v>
+        <v>0.16776043387216222</v>
       </c>
       <c r="W24" s="58"/>
     </row>
@@ -59656,15 +59674,15 @@
       </c>
       <c r="W27" s="58"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="J28" s="46"/>
       <c r="K28" s="67"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="K30" s="67"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="L31" s="88"/>
     </row>
   </sheetData>
